--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B79BD9-20AC-45FF-A8C3-5DA680E41FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A8BAF-7035-4068-AE9D-CFE11F2ACEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="870" windowWidth="24090" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD VAL" sheetId="7" r:id="rId2"/>
-    <sheet name="BECbIC" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD Chem Pharma Split" sheetId="8" r:id="rId3"/>
+    <sheet name="BECbIC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,8 +35,616 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{EEF11BD2-AF37-4CBB-822E-6A31DF0D2344}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{DB22909D-6DEF-427A-9DE4-012C220EA4D1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{250E10D3-1062-4DD3-ACA2-ECD31EF86D7B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{BA4E2F55-F89E-4CFC-9D44-0D980255738F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{6A2248AB-FD7F-4D81-9017-AFD5A0BF36A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{A657A8B0-625F-41D9-A714-633967FFC6AA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{59304A32-B30E-4E51-B733-34C77E61D8F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{01AEFE9F-CB22-4E14-B29B-5B1045FB2935}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{69844961-6A1D-44CE-A62C-D4BDF93FD81B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{CC3DA8B0-C6A9-4FC0-9464-23612D864C1D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{6EBC89CE-CDF3-4665-9D22-CDE6F29F39C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{CDFB8841-ECC7-4300-90CA-1CD3101EBBB0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{ABAA4756-53DB-4082-AFD1-0E5F7D4E45F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{7361015B-B0DA-4571-B485-AE17B6D69348}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{4BC53B10-0905-45A1-AE44-F50D4A0C4A5B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{09020483-B8BF-4C53-A617-D6D6E77CA3E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{C5FE7FCD-5AA6-4556-81BC-C1DD928FB394}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{17F6894A-A366-4E63-BD3A-DFD66672E41C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{C22E1DC1-1906-4A49-AF5B-36D228D6D95F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{C9F49FEE-1B73-4E82-8F43-D0AB5250B4F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{0220E9A6-F15A-4287-9109-5CBB2B27001F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{084B4CAE-1EBC-46F1-B3BE-9203FAF4B7D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{B0376147-BE58-4851-973A-B0A5603F664F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{10E6D036-E3E2-4F94-B0EA-043CBAFE02B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{E0B12ECE-9AEB-40F4-82B8-48C064D764D4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{84F3AC7D-9E1C-4EF2-8604-5316A64FDD6D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{DD5DD357-BE63-4807-951E-CCFF5A6E655F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{EAA92858-47E5-4D1B-B12B-FB56B8CD6ECD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{8FAC73F4-32CC-408C-8C48-42492CE55B0B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{745717A5-23A4-460A-AF67-28FC29A5900E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{FC3B65F3-BA75-4D9A-A934-1E78E0B182E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{0FF52589-AF87-4D9C-895B-D0CF37A00CF9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{4DEEF721-454E-40EC-9786-9B45B2343B51}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{CB003191-E0E8-4796-8EBD-5444ABC3FB39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{A15F6DA5-0F58-4DF2-A2A6-AC27212FE611}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{CDD17AE6-154C-4173-9DB9-1A37BC0BB3FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{97CC16F7-3884-4C49-B2A7-DC608CE55536}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{978EB612-BA98-4957-807A-042927E93D5E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{DA4E556F-AA80-4144-BE4A-F6F669C68038}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{D55C0177-370A-48F7-B7C1-CB557D77605D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{22D3F871-D7A1-4ACA-BC22-2720F77B2033}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{1C8FF4E3-5725-46AE-8C02-C328B0D8F32A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{BDC0603B-78F6-482E-ADEE-5D5119A63B9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{00D23871-8CC2-4939-92F0-8A3E08254D64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{A01148A4-EA42-4754-9899-49EECB140B83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{414008A8-734C-4437-B821-6F20FAC93B94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>Source:</t>
   </si>
@@ -94,9 +703,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -175,9 +781,6 @@
     <t>ISIC 97T98</t>
   </si>
   <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-  </si>
-  <si>
     <t>Dataset: Input-Output Tables 2018 edition</t>
   </si>
   <si>
@@ -341,6 +944,159 @@
   </si>
   <si>
     <t>BECbIC BAU Employee Compensation by ISIC Code</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+  </si>
+  <si>
+    <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+  </si>
+  <si>
+    <t>PROD: Production (gross output), current prices</t>
+  </si>
+  <si>
+    <t>VALU: Value added, current prices</t>
+  </si>
+  <si>
+    <t>LABR: Labour costs (compensation of employees)</t>
+  </si>
+  <si>
+    <t>EMPN: Number of persons engaged (total employment)</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>D20: Chemicals and chemical products [CE]</t>
+  </si>
+  <si>
+    <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>c:</t>
+  </si>
+  <si>
+    <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>Most Industries</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
+  <si>
+    <t>Chemicals and Pharmaceuticals Industries</t>
+  </si>
+  <si>
+    <t>STAN Database for Structural Analysis</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+  </si>
+  <si>
+    <t>Variable: PROD</t>
+  </si>
+  <si>
+    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+  </si>
+  <si>
+    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +1107,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +1201,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +1242,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +1324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,6 +1394,72 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -902,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,71 +1753,117 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B25" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{C45F7FD1-E582-4900-94D0-FDF23F149E19}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{676EE023-F1C0-4717-8897-C81C92D54826}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{738871AA-8A85-449E-9916-DE46D7228F91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1014,16 +1900,16 @@
     </row>
     <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -1155,7 +2041,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1195,121 +2081,121 @@
     </row>
     <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -1425,7 +2311,7 @@
     </row>
     <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1541,7 +2427,7 @@
     </row>
     <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -1657,7 +2543,7 @@
     </row>
     <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -1773,7 +2659,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1799,23 +2685,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E446F6-C76E-49FD-A090-AD4B65FAC91F}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="e">
+        <f ca="1">DotStatQuery(B1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="42">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="42">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="42">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="42">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="42">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="42">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="42">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="42">
+        <v>151</v>
+      </c>
+      <c r="L7" s="42">
+        <v>48</v>
+      </c>
+      <c r="M7" s="42">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="42">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="43">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="43">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="43">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="43">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="43">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="43">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="43">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="43">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="42">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="42">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="42">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="42">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="42">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="42">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="42">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="42">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="42">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="42">
+        <v>44</v>
+      </c>
+      <c r="N9" s="42">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="43">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="43">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="43">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="43">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="43">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="43">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="43">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="43">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="42">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="42">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="42">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="42">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="42">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="42">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="42">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="42">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="42">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="42">
+        <v>10</v>
+      </c>
+      <c r="M11" s="42">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="42">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="43">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="43">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="43">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="43">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="43">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="43">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="43">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="43">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="43">
+        <v>85</v>
+      </c>
+      <c r="L12" s="43">
+        <v>98</v>
+      </c>
+      <c r="M12" s="43">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="43">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="42">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="42">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="42">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="42">
+        <v>11</v>
+      </c>
+      <c r="G13" s="42">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="42">
+        <v>56</v>
+      </c>
+      <c r="J13" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="43">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="43">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="43">
+        <v>775</v>
+      </c>
+      <c r="H14" s="43">
+        <v>264</v>
+      </c>
+      <c r="I14" s="43">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="43">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="43">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="43">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="43">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="43">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="42">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="42">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="42">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="42">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="42">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="42">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="42">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="42">
+        <v>772</v>
+      </c>
+      <c r="L15" s="42">
+        <v>341</v>
+      </c>
+      <c r="M15" s="42">
+        <v>111</v>
+      </c>
+      <c r="N15" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="43">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="43">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="43">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="43">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="43">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="43">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="43">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="43">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="43">
+        <v>178</v>
+      </c>
+      <c r="L16" s="43">
+        <v>66</v>
+      </c>
+      <c r="M16" s="43">
+        <v>348</v>
+      </c>
+      <c r="N16" s="43">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="42">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="42">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="42">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="42">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="42">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="42">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="42">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="42">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="42">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="42">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="42">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="43">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="43">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="43">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="43">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="43">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="43">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="43">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="43">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="43">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="43">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="43">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="42">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="42">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="42">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="42">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="42">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="42">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="42">
+        <v>328</v>
+      </c>
+      <c r="N19" s="42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="43">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="43">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="43">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="43">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="43">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="43">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="43">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="43">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="43">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="43">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="43">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="42">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="42">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="42">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="42">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="42">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="42">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="42">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="42">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="42">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="42">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="43">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="43">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="43">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="43">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="43">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="43">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="43">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="43">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="42">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="42">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="42">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="42">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="42">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="42">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="42">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="42">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="42">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="42">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="42">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="42">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="43">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="43">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="43">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="43">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="43">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="43">
+        <v>902</v>
+      </c>
+      <c r="I24" s="43">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="43">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="43">
+        <v>15</v>
+      </c>
+      <c r="L24" s="43">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="43">
+        <v>43</v>
+      </c>
+      <c r="N24" s="43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="42">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="42">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="42">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="42">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="42">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="42">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="42">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="42">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="42">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="42">
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="43">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="43">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="43">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="43">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="43">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="43">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="43">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="43">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="43">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="43">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="43">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="42">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="42">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="42">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="42">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="42">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="42">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="42">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="42">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="42">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="42">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="42">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="42">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="43">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="43">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="43">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="43">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="43">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="43">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="43">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="43">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="43">
+        <v>50</v>
+      </c>
+      <c r="L28" s="43">
+        <v>7</v>
+      </c>
+      <c r="M28" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="43">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="42">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="42">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="42">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="42">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="42">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="42">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="43">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="43">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="43">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="43">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="43">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="43">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="43">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="43">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="43">
+        <v>59</v>
+      </c>
+      <c r="L30" s="43">
+        <v>13</v>
+      </c>
+      <c r="M30" s="43">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="43">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="42">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="42">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="42">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="42">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="42">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="42">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="42">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="42">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="42">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="42">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="42">
+        <v>534</v>
+      </c>
+      <c r="N31" s="42">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{74C1BA66-5936-4644-B930-C4F144CD2C37}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8DE88401-0FB2-4F1C-A552-8C5ECA6A140E}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{82BCB2A3-769A-486B-887F-FED847CB24F0}"/>
+    <hyperlink ref="G4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BD1EA945-C1A9-41BE-B3D2-C9DB44FD5713}"/>
+    <hyperlink ref="I4" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{767D0A57-EC49-41F9-A009-9A37D95370EA}"/>
+    <hyperlink ref="K4" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F535E580-F99E-460C-9B95-C624903E7FC0}"/>
+    <hyperlink ref="M4" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{307224DE-A381-4D9A-9E5C-149AF929770D}"/>
+    <hyperlink ref="A7" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EE6B1FA3-84F1-4D4E-B386-FD2C2851185E}"/>
+    <hyperlink ref="A8" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{70860490-4592-4EC0-89ED-68E139694E30}"/>
+    <hyperlink ref="A9" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E2AE1E65-84D0-4C4D-AA14-199A14480412}"/>
+    <hyperlink ref="A10" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{65F82E61-E422-4437-9AB9-A36824FB8672}"/>
+    <hyperlink ref="A11" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C5C32C9B-67CD-4896-8214-0C7C6E039CBE}"/>
+    <hyperlink ref="A12" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FA7D9339-A2C1-42D9-8295-C08CF00EBA32}"/>
+    <hyperlink ref="A13" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7E892E7C-7BCE-4BB7-828F-C7D0C1D170A6}"/>
+    <hyperlink ref="A14" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7B947448-4315-4692-B9E0-5235A88947F3}"/>
+    <hyperlink ref="A15" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9F4052D8-FC15-488C-8392-4788E082A26D}"/>
+    <hyperlink ref="A16" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{5A0641A9-8316-4480-BE2D-C0A44D851655}"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{165828BF-7CCB-4860-B20C-A8A1D460691E}"/>
+    <hyperlink ref="A18" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2D2C4FF1-931B-4340-8CF8-9E356B5A417C}"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F8D2D72B-9AA0-4F5A-8818-21F461B79B2D}"/>
+    <hyperlink ref="A20" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F2752334-8175-4E6B-9218-427B79DF3C2C}"/>
+    <hyperlink ref="A21" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E1ED38D3-4633-4B3E-B62F-8D9C5B310ACC}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{30D159F1-1D49-4393-B207-F663CAD54CF5}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DF088931-826D-435C-B084-93A9D6C77123}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{91D8E8A9-9A1C-4B13-97CB-3C7139A8FD74}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DC31E0C0-0794-4B4E-9883-33FE19CBFA5F}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D961BCF6-9328-4431-84A6-8CD85AEBD014}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{60AAD49C-7E2A-437E-BB04-C5783C129049}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DCF3B3D2-3691-4CF0-B62C-F98616572417}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8027E701-4B8E-4B32-9621-BE5C05E55FDD}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{23B11085-6D89-4C27-9ABE-24B45E60ECC9}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" xr:uid="{626315FD-378A-45C5-BAFF-D9FE99FF0746}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="2" max="38" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1844,234 +4073,241 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <f>'OECD VAL'!C9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!C9*10^6*About!$A$25</f>
         <v>54016507157.360023</v>
       </c>
       <c r="C2">
-        <f>'OECD VAL'!D9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!D9*10^6*About!$A$25</f>
         <v>42087940459.502907</v>
       </c>
       <c r="D2">
-        <f>'OECD VAL'!E9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!E9*10^6*About!$A$25</f>
         <v>13192667088.040098</v>
       </c>
       <c r="E2">
-        <f>'OECD VAL'!F9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!F9*10^6*About!$A$25</f>
         <v>31699803162.920803</v>
       </c>
       <c r="F2">
-        <f>'OECD VAL'!G9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!G9*10^6*About!$A$25</f>
         <v>104565156568.91278</v>
       </c>
       <c r="G2">
-        <f>'OECD VAL'!H9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!H9*10^6*About!$A$25</f>
         <v>19249581096.571133</v>
       </c>
       <c r="H2">
-        <f>'OECD VAL'!I9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!I9*10^6*About!$A$25</f>
         <v>19084921697.025951</v>
       </c>
       <c r="I2">
-        <f>'OECD VAL'!J9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!J9*10^6*About!$A$25</f>
         <v>53950867356.721252</v>
       </c>
       <c r="J2">
-        <f>'OECD VAL'!K9*10^6*About!$A$14</f>
+        <f>'OECD VAL'!K9*10^6*About!$A$25</f>
         <v>17895825352.232121</v>
       </c>
-      <c r="K2">
-        <f>'OECD VAL'!L9*10^6*About!$A$14</f>
-        <v>97892958305.927429</v>
-      </c>
-      <c r="L2">
-        <f>'OECD VAL'!M9*10^6*About!$A$14</f>
+      <c r="K2" s="49">
+        <f>'OECD VAL'!L9*10^6*About!$A$25*('OECD Chem Pharma Split'!G$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
+        <v>53198480153.393837</v>
+      </c>
+      <c r="L2" s="49">
+        <f>'OECD VAL'!L9*10^6*About!$A$25*('OECD Chem Pharma Split'!H$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
+        <v>44694478152.533585</v>
+      </c>
+      <c r="M2">
+        <f>'OECD VAL'!M9*10^6*About!$A$25</f>
         <v>48035143530.62439</v>
       </c>
-      <c r="M2">
-        <f>'OECD VAL'!N9*10^6*About!$A$14</f>
+      <c r="N2">
+        <f>'OECD VAL'!N9*10^6*About!$A$25</f>
         <v>27963696179.008259</v>
       </c>
-      <c r="N2">
-        <f>'OECD VAL'!O9*10^6*About!$A$14</f>
+      <c r="O2">
+        <f>'OECD VAL'!O9*10^6*About!$A$25</f>
         <v>30535090470.641346</v>
       </c>
-      <c r="O2">
-        <f>'OECD VAL'!P9*10^6*About!$A$14</f>
+      <c r="P2">
+        <f>'OECD VAL'!P9*10^6*About!$A$25</f>
         <v>93149679188.412643</v>
       </c>
-      <c r="P2">
-        <f>'OECD VAL'!Q9*10^6*About!$A$14</f>
+      <c r="Q2">
+        <f>'OECD VAL'!Q9*10^6*About!$A$25</f>
         <v>133807960921.68916</v>
       </c>
-      <c r="Q2">
-        <f>'OECD VAL'!R9*10^6*About!$A$14</f>
+      <c r="R2">
+        <f>'OECD VAL'!R9*10^6*About!$A$25</f>
         <v>33053576343.528103</v>
       </c>
-      <c r="R2">
-        <f>'OECD VAL'!S9*10^6*About!$A$14</f>
+      <c r="S2">
+        <f>'OECD VAL'!S9*10^6*About!$A$25</f>
         <v>87657629558.546432</v>
       </c>
-      <c r="S2">
-        <f>'OECD VAL'!T9*10^6*About!$A$14</f>
+      <c r="T2">
+        <f>'OECD VAL'!T9*10^6*About!$A$25</f>
         <v>66099176562.997589</v>
       </c>
-      <c r="T2">
-        <f>'OECD VAL'!U9*10^6*About!$A$14</f>
+      <c r="U2">
+        <f>'OECD VAL'!U9*10^6*About!$A$25</f>
         <v>76755469135.572556</v>
       </c>
-      <c r="U2">
-        <f>'OECD VAL'!V9*10^6*About!$A$14</f>
+      <c r="V2">
+        <f>'OECD VAL'!V9*10^6*About!$A$25</f>
         <v>70758876865.8535</v>
       </c>
-      <c r="V2">
-        <f>'OECD VAL'!W9*10^6*About!$A$14</f>
+      <c r="W2">
+        <f>'OECD VAL'!W9*10^6*About!$A$25</f>
         <v>99649765984.524323</v>
       </c>
-      <c r="W2">
-        <f>'OECD VAL'!X9*10^6*About!$A$14</f>
+      <c r="X2">
+        <f>'OECD VAL'!X9*10^6*About!$A$25</f>
         <v>443551633131.10876</v>
       </c>
-      <c r="X2">
-        <f>'OECD VAL'!Y9*10^6*About!$A$14</f>
+      <c r="Y2">
+        <f>'OECD VAL'!Y9*10^6*About!$A$25</f>
         <v>1092867487465.397</v>
       </c>
-      <c r="Y2">
-        <f>'OECD VAL'!Z9*10^6*About!$A$14</f>
+      <c r="Z2">
+        <f>'OECD VAL'!Z9*10^6*About!$A$25</f>
         <v>358730084291.4812</v>
       </c>
-      <c r="Z2">
-        <f>'OECD VAL'!AA9*10^6*About!$A$14</f>
+      <c r="AA2">
+        <f>'OECD VAL'!AA9*10^6*About!$A$25</f>
         <v>330227698478.54797</v>
       </c>
-      <c r="AA2">
-        <f>'OECD VAL'!AB9*10^6*About!$A$14</f>
+      <c r="AB2">
+        <f>'OECD VAL'!AB9*10^6*About!$A$25</f>
         <v>197642858841.8468</v>
       </c>
-      <c r="AB2">
-        <f>'OECD VAL'!AC9*10^6*About!$A$14</f>
+      <c r="AC2">
+        <f>'OECD VAL'!AC9*10^6*About!$A$25</f>
         <v>83292175969.808075</v>
       </c>
-      <c r="AC2">
-        <f>'OECD VAL'!AD9*10^6*About!$A$14</f>
+      <c r="AD2">
+        <f>'OECD VAL'!AD9*10^6*About!$A$25</f>
         <v>286458782608.58081</v>
       </c>
-      <c r="AD2">
-        <f>'OECD VAL'!AE9*10^6*About!$A$14</f>
+      <c r="AE2">
+        <f>'OECD VAL'!AE9*10^6*About!$A$25</f>
         <v>726862913582.39282</v>
       </c>
-      <c r="AE2">
-        <f>'OECD VAL'!AF9*10^6*About!$A$14</f>
+      <c r="AF2">
+        <f>'OECD VAL'!AF9*10^6*About!$A$25</f>
         <v>99124994367.416687</v>
       </c>
-      <c r="AF2">
-        <f>'OECD VAL'!AG9*10^6*About!$A$14</f>
+      <c r="AG2">
+        <f>'OECD VAL'!AG9*10^6*About!$A$25</f>
         <v>1320219395505.2676</v>
       </c>
-      <c r="AG2">
-        <f>'OECD VAL'!AH9*10^6*About!$A$14</f>
+      <c r="AH2">
+        <f>'OECD VAL'!AH9*10^6*About!$A$25</f>
         <v>1182871631888.7844</v>
       </c>
-      <c r="AH2">
-        <f>'OECD VAL'!AI9*10^6*About!$A$14</f>
+      <c r="AI2">
+        <f>'OECD VAL'!AI9*10^6*About!$A$25</f>
         <v>838587376723.22241</v>
       </c>
-      <c r="AI2">
-        <f>'OECD VAL'!AJ9*10^6*About!$A$14</f>
+      <c r="AJ2">
+        <f>'OECD VAL'!AJ9*10^6*About!$A$25</f>
         <v>1041787952118.6583</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD VAL'!AK9*10^6*About!$A$14</f>
+      <c r="AK2">
+        <f>'OECD VAL'!AK9*10^6*About!$A$25</f>
         <v>309954904850.23438</v>
       </c>
-      <c r="AK2">
-        <f>'OECD VAL'!AL9*10^6*About!$A$14</f>
+      <c r="AL2">
+        <f>'OECD VAL'!AL9*10^6*About!$A$25</f>
         <v>20682998307.294415</v>
       </c>
     </row>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99D196-335D-4D2E-82BD-9FEFCB3E10C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE8989-4A29-4F15-A3EB-818C2B2E134B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="1200" windowWidth="31395" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1116">
   <si>
     <t>Source:</t>
   </si>
@@ -3378,6 +3378,12 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -3791,36 +3797,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3892,6 +3868,36 @@
     <xf numFmtId="11" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4274,17 +4280,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="56" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="56" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4389,186 +4395,186 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="66"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="27"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="61"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="27"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="61"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="27"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="61"/>
     </row>
     <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -5206,81 +5212,81 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>212</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -5289,7 +5295,7 @@
       <c r="H4" s="20">
         <v>3254</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="30">
         <v>325</v>
       </c>
       <c r="J4" s="4">
@@ -5298,22 +5304,22 @@
       <c r="K4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="O4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="L4" s="31"/>
+      <c r="O4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="30" t="s">
         <v>151</v>
       </c>
       <c r="G5" s="20">
@@ -5322,7 +5328,7 @@
       <c r="H5" s="20">
         <v>21</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="30" t="s">
         <v>152</v>
       </c>
       <c r="J5" s="4">
@@ -5331,7 +5337,7 @@
       <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="31">
         <v>23</v>
       </c>
       <c r="M5">
@@ -5340,7 +5346,7 @@
       <c r="N5">
         <v>242</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="29">
         <v>24</v>
       </c>
       <c r="P5" s="4">
@@ -5352,18 +5358,18 @@
       <c r="R5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="29" t="s">
         <v>156</v>
       </c>
       <c r="D6">
@@ -5372,7 +5378,7 @@
       <c r="E6">
         <v>185400</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="29"/>
       <c r="G6">
         <f>815300-284200</f>
         <v>531100</v>
@@ -5380,7 +5386,7 @@
       <c r="H6">
         <v>284200</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="29"/>
       <c r="J6">
         <v>93600</v>
       </c>
@@ -5388,7 +5394,7 @@
         <f>404500-93600</f>
         <v>310900</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="29"/>
       <c r="M6">
         <f>83700+59200+66600</f>
         <v>209500</v>
@@ -5397,7 +5403,7 @@
         <f>62100+62700+57600</f>
         <v>182400</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="29"/>
       <c r="P6">
         <v>397500</v>
       </c>
@@ -5407,16 +5413,16 @@
       <c r="R6">
         <v>50300</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="32" t="s">
         <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="29" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="19">
@@ -5427,7 +5433,7 @@
         <f>D40*10^6</f>
         <v>268953000000</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="29"/>
       <c r="G7">
         <f>SUM(D278:D284,D289:D296)*10^6</f>
         <v>515925000000</v>
@@ -5436,17 +5442,17 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>269601000000</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="43">
+      <c r="I7" s="29"/>
+      <c r="J7" s="33">
         <f>D77*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="33">
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>93232000000</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="43">
+      <c r="L7" s="29"/>
+      <c r="M7" s="33">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>127020000000</v>
       </c>
@@ -5454,61 +5460,61 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>100094000000</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="43">
+      <c r="O7" s="29"/>
+      <c r="P7" s="33">
         <f>SUM(D48:D57)*10^6</f>
         <v>413205000000</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="33">
         <f>D58*10^6</f>
         <v>86048000000</v>
       </c>
-      <c r="R7" s="43">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
-      </c>
-      <c r="S7" s="39"/>
+      <c r="R7" s="33">
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
+      </c>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="21">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="34">
         <v>106189000000</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <v>785526000000</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="35">
         <v>119118000000</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="35">
         <v>227114000000</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="35">
         <v>513760000000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="32" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="39" t="str">
+      <c r="C9" s="29" t="str">
         <f>A9</f>
         <v>Value Added</v>
       </c>
@@ -5520,68 +5526,68 @@
         <f>I33*10^6</f>
         <v>158231000000</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="34">
         <f>I34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="36">
         <f>$I9*(G$7/$I$8)</f>
         <v>218698327521.9407</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <f>$I9*(H$7/$I$8)</f>
         <v>114282672478.05928</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="34">
         <f>I58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="36">
         <f>$L9*(J$7/$L$8)</f>
         <v>11878596400.208197</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="36">
         <f>$L9*(K$7/$L$8)</f>
         <v>42782403599.791801</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="35">
         <f>I41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="36">
         <f>$O9*(M$7/$O$8)</f>
         <v>33593628398.073215</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="36">
         <f>$O9*(N$7/$O$8)</f>
         <v>26472371601.926785</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="35">
         <f>I42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="36">
         <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
         <v>240665210526.3158</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="36">
         <f t="shared" si="0"/>
         <v>50117399439.426971</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="36">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
-      </c>
-      <c r="S9" s="45">
+        <v>60759076237.932114</v>
+      </c>
+      <c r="S9" s="35">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="39" t="str">
+      <c r="C10" s="29" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
@@ -5593,68 +5599,68 @@
         <f>J33*10^6</f>
         <v>38814000000</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="34">
         <f>J34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="36">
         <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>65995493274.57016</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="36">
         <f t="shared" si="3"/>
         <v>34486506725.42984</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="34">
         <f>J58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="36">
         <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>5884861062.1400633</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="36">
         <f t="shared" si="4"/>
         <v>21195138937.859936</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="35">
         <f>J41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="36">
         <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>17693337795.116112</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="36">
         <f t="shared" si="5"/>
         <v>13942662204.883892</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="35">
         <f>J42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="36">
         <f t="shared" si="0"/>
         <v>62434361842.105263</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="36">
         <f t="shared" si="0"/>
         <v>13001662535.035814</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="36">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
-      </c>
-      <c r="S10" s="45">
+        <v>15762370235.129244</v>
+      </c>
+      <c r="S10" s="35">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="39" t="str">
+      <c r="C11" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Taxes on production and imports, less subsidies</v>
       </c>
@@ -5666,68 +5672,68 @@
         <f>K33*10^6</f>
         <v>32690000000</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="34">
         <f>K34*10^6</f>
         <v>4968000000</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="36">
         <f t="shared" si="3"/>
         <v>10700409789.109463</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="36">
         <f t="shared" si="3"/>
         <v>5591590210.8905363</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="34">
         <f>K58*10^6</f>
         <v>16292000000</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="36">
         <f t="shared" si="4"/>
         <v>314235934.11575079</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="36">
         <f t="shared" si="4"/>
         <v>1131764065.8842492</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="35">
         <f>K41*10^6</f>
         <v>1446000000</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="36">
         <f t="shared" si="5"/>
         <v>1388688764.2329404</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="36">
         <f t="shared" si="5"/>
         <v>1094311235.7670598</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="35">
         <f>K42*10^6</f>
         <v>2483000000</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="36">
         <f t="shared" si="0"/>
         <v>47461149671.052628</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="36">
         <f t="shared" si="0"/>
         <v>9883561445.0326996</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="36">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
-      </c>
-      <c r="S11" s="45">
+        <v>11982187225.552788</v>
+      </c>
+      <c r="S11" s="35">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="39" t="str">
+      <c r="C12" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Gross operating surplus</v>
       </c>
@@ -5739,59 +5745,59 @@
         <f>L33*10^6</f>
         <v>86727000000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="34">
         <f>L34*10^6</f>
         <v>26971000000</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="36">
         <f t="shared" si="3"/>
         <v>142001767669.05234</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="36">
         <f t="shared" si="3"/>
         <v>74204232330.947662</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="34">
         <f>L58*10^6</f>
         <v>216206000000</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="36">
         <f t="shared" si="4"/>
         <v>5679499403.952384</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="36">
         <f t="shared" si="4"/>
         <v>20455500596.047615</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="35">
         <f>L41*10^6</f>
         <v>26135000000</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="36">
         <f t="shared" si="5"/>
         <v>14511601838.724167</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="36">
         <f t="shared" si="5"/>
         <v>11435398161.275835</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="35">
         <f>L42*10^6</f>
         <v>25947000000</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="36">
         <f t="shared" si="0"/>
         <v>130769699013.1579</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="36">
         <f t="shared" si="0"/>
         <v>27232175459.358456</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
-      </c>
-      <c r="S12" s="45">
+        <v>33014518777.25008</v>
+      </c>
+      <c r="S12" s="35">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
@@ -5838,27 +5844,27 @@
       <c r="B26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="38"/>
+      <c r="I26" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="41" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5869,7 +5875,7 @@
       <c r="C27" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <v>34314</v>
       </c>
       <c r="G27" t="s">
@@ -5878,16 +5884,16 @@
       <c r="H27" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="42">
         <v>18238301</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="42">
         <v>9709535</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="42">
         <v>1217959</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="42">
         <v>7310806</v>
       </c>
     </row>
@@ -5898,7 +5904,7 @@
       <c r="C28" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <v>61876</v>
       </c>
       <c r="G28" t="s">
@@ -5907,16 +5913,16 @@
       <c r="H28" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="42">
         <v>15898859</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="42">
         <v>7863213</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="42">
         <v>1242490</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="42">
         <v>6793156</v>
       </c>
       <c r="N28" s="19"/>
@@ -5928,7 +5934,7 @@
       <c r="C29" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <v>19404</v>
       </c>
       <c r="G29" t="s">
@@ -5937,16 +5943,16 @@
       <c r="H29" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="42">
         <v>182283</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="42">
         <v>50616</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="42">
         <v>2314</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="42">
         <v>129354</v>
       </c>
       <c r="N29" s="19"/>
@@ -5958,7 +5964,7 @@
       <c r="C30" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <v>28308</v>
       </c>
       <c r="G30" t="s">
@@ -5967,16 +5973,16 @@
       <c r="H30" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="42">
         <v>147384</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="42">
         <v>27205</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="42">
         <v>789</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="42">
         <v>119390</v>
       </c>
       <c r="N30" s="19"/>
@@ -5988,7 +5994,7 @@
       <c r="C31" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="42">
         <v>22098</v>
       </c>
       <c r="G31" t="s">
@@ -5997,16 +6003,16 @@
       <c r="H31" t="s">
         <v>183</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="42">
         <v>34899</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="42">
         <v>23410</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="42">
         <v>1525</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="42">
         <v>9964</v>
       </c>
     </row>
@@ -6017,7 +6023,7 @@
       <c r="C32" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="42">
         <v>22767</v>
       </c>
       <c r="G32" t="s">
@@ -6026,16 +6032,16 @@
       <c r="H32" t="s">
         <v>186</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="42">
         <v>261774</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="42">
         <v>91867</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="42">
         <v>40072</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="42">
         <v>129835</v>
       </c>
     </row>
@@ -6046,25 +6052,25 @@
       <c r="C33" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="42">
         <v>36867</v>
       </c>
       <c r="G33" t="s">
         <v>187</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="42">
         <v>158231</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="42">
         <v>38814</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="42">
         <v>32690</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="42">
         <v>86727</v>
       </c>
     </row>
@@ -6075,25 +6081,25 @@
       <c r="C34" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="42">
         <v>93695</v>
       </c>
       <c r="G34" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="42">
         <v>49994</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="42">
         <v>18055</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="42">
         <v>4968</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="42">
         <v>26971</v>
       </c>
     </row>
@@ -6104,7 +6110,7 @@
       <c r="C35" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="42">
         <v>50423</v>
       </c>
       <c r="G35" t="s">
@@ -6113,16 +6119,16 @@
       <c r="H35" t="s">
         <v>195</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="42">
         <v>53550</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="42">
         <v>34998</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="42">
         <v>2415</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="42">
         <v>16137</v>
       </c>
     </row>
@@ -6133,25 +6139,25 @@
       <c r="C36" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="42">
         <v>36649</v>
       </c>
       <c r="G36" t="s">
         <v>196</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="42">
         <v>299232</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="42">
         <v>77628</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="42">
         <v>59011</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="42">
         <v>162593</v>
       </c>
     </row>
@@ -6162,7 +6168,7 @@
       <c r="C37" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="42">
         <v>21437</v>
       </c>
       <c r="G37" t="s">
@@ -6171,16 +6177,16 @@
       <c r="H37" t="s">
         <v>201</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="42">
         <v>694943</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="42">
         <v>458477</v>
       </c>
-      <c r="K37" s="52">
+      <c r="K37" s="42">
         <v>8976</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="42">
         <v>227490</v>
       </c>
     </row>
@@ -6191,7 +6197,7 @@
       <c r="C38" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="42">
         <v>8667</v>
       </c>
       <c r="G38" t="s">
@@ -6200,16 +6206,16 @@
       <c r="H38" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="42">
         <v>2129592</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="42">
         <v>1006425</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K38" s="42">
         <v>85526</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="42">
         <v>1037641</v>
       </c>
     </row>
@@ -6220,7 +6226,7 @@
       <c r="C39" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="42">
         <v>23422</v>
       </c>
       <c r="G39" t="s">
@@ -6229,16 +6235,16 @@
       <c r="H39" t="s">
         <v>207</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="42">
         <v>1183755</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="42">
         <v>662696</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="42">
         <v>30260</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="42">
         <v>490800</v>
       </c>
     </row>
@@ -6246,10 +6252,10 @@
       <c r="B40" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="42">
         <v>268953</v>
       </c>
       <c r="E40" t="s">
@@ -6261,16 +6267,16 @@
       <c r="H40" t="s">
         <v>210</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="42">
         <v>32485</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="42">
         <v>20428</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="42">
         <v>704</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="42">
         <v>11353</v>
       </c>
     </row>
@@ -6278,10 +6284,10 @@
       <c r="B41" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="42">
         <v>40135</v>
       </c>
       <c r="E41" t="s">
@@ -6290,19 +6296,19 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="I41" s="52">
+      <c r="I41" s="42">
         <v>54661</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="42">
         <v>27080</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="42">
         <v>1446</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="42">
         <v>26135</v>
       </c>
     </row>
@@ -6313,25 +6319,25 @@
       <c r="C42" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="42">
         <v>11643</v>
       </c>
       <c r="G42" t="s">
         <v>215</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="42">
         <v>60066</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="42">
         <v>31636</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="42">
         <v>2483</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="42">
         <v>25947</v>
       </c>
     </row>
@@ -6342,7 +6348,7 @@
       <c r="C43" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="42">
         <v>14089</v>
       </c>
       <c r="G43" t="s">
@@ -6351,16 +6357,16 @@
       <c r="H43" t="s">
         <v>220</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="42">
         <v>147361</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="42">
         <v>97092</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="42">
         <v>3374</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="42">
         <v>46896</v>
       </c>
     </row>
@@ -6371,7 +6377,7 @@
       <c r="C44" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="42">
         <v>19415</v>
       </c>
       <c r="G44" t="s">
@@ -6380,16 +6386,16 @@
       <c r="H44" t="s">
         <v>223</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="42">
         <v>152472</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="42">
         <v>94664</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="42">
         <v>3548</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="42">
         <v>54260</v>
       </c>
     </row>
@@ -6400,7 +6406,7 @@
       <c r="C45" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="42">
         <v>20908</v>
       </c>
       <c r="G45" t="s">
@@ -6409,16 +6415,16 @@
       <c r="H45" t="s">
         <v>226</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="42">
         <v>267323</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="42">
         <v>137529</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="42">
         <v>8570</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="42">
         <v>121224</v>
       </c>
     </row>
@@ -6429,7 +6435,7 @@
       <c r="C46" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="42">
         <v>32318</v>
       </c>
       <c r="G46" t="s">
@@ -6438,16 +6444,16 @@
       <c r="H46" t="s">
         <v>229</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="42">
         <v>63631</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="42">
         <v>34671</v>
       </c>
-      <c r="K46" s="52">
+      <c r="K46" s="42">
         <v>879</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="42">
         <v>28080</v>
       </c>
     </row>
@@ -6458,7 +6464,7 @@
       <c r="C47" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="42">
         <v>88512</v>
       </c>
       <c r="G47" t="s">
@@ -6467,16 +6473,16 @@
       <c r="H47" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="42">
         <v>146240</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="42">
         <v>69905</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="42">
         <v>3414</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="42">
         <v>72921</v>
       </c>
     </row>
@@ -6484,10 +6490,10 @@
       <c r="B48" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="42">
         <v>3124</v>
       </c>
       <c r="E48" t="s">
@@ -6499,16 +6505,16 @@
       <c r="H48" t="s">
         <v>236</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="42">
         <v>149076</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="42">
         <v>77790</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="42">
         <v>2485</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="42">
         <v>68800</v>
       </c>
     </row>
@@ -6516,10 +6522,10 @@
       <c r="B49" t="s">
         <v>237</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="42">
         <v>103566</v>
       </c>
       <c r="E49" t="s">
@@ -6531,16 +6537,16 @@
       <c r="H49" t="s">
         <v>239</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="42">
         <v>29141</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J49" s="42">
         <v>20277</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="42">
         <v>387</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="42">
         <v>8477</v>
       </c>
     </row>
@@ -6548,10 +6554,10 @@
       <c r="B50" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="42">
         <v>36820</v>
       </c>
       <c r="E50" t="s">
@@ -6563,16 +6569,16 @@
       <c r="H50" t="s">
         <v>242</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="42">
         <v>81299</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="42">
         <v>51622</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="42">
         <v>2969</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="42">
         <v>26708</v>
       </c>
     </row>
@@ -6580,10 +6586,10 @@
       <c r="B51" t="s">
         <v>243</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="42">
         <v>749</v>
       </c>
       <c r="E51" t="s">
@@ -6595,16 +6601,16 @@
       <c r="H51" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="42">
         <v>945837</v>
       </c>
-      <c r="J51" s="52">
+      <c r="J51" s="42">
         <v>343730</v>
       </c>
-      <c r="K51" s="52">
+      <c r="K51" s="42">
         <v>55266</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="42">
         <v>546841</v>
       </c>
     </row>
@@ -6612,10 +6618,10 @@
       <c r="B52" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="42">
         <v>6621</v>
       </c>
       <c r="E52" t="s">
@@ -6627,16 +6633,16 @@
       <c r="H52" t="s">
         <v>248</v>
       </c>
-      <c r="I52" s="52">
+      <c r="I52" s="42">
         <v>261724</v>
       </c>
-      <c r="J52" s="52">
+      <c r="J52" s="42">
         <v>103480</v>
       </c>
-      <c r="K52" s="52">
+      <c r="K52" s="42">
         <v>30122</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="42">
         <v>128122</v>
       </c>
     </row>
@@ -6644,10 +6650,10 @@
       <c r="B53" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="42">
         <v>1416</v>
       </c>
       <c r="E53" t="s">
@@ -6659,16 +6665,16 @@
       <c r="H53" t="s">
         <v>251</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="42">
         <v>17936</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="42">
         <v>12017</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="42">
         <v>571</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="42">
         <v>5348</v>
       </c>
     </row>
@@ -6676,10 +6682,10 @@
       <c r="B54" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="42">
         <v>1101</v>
       </c>
       <c r="E54" t="s">
@@ -6691,16 +6697,16 @@
       <c r="H54" t="s">
         <v>254</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="42">
         <v>9694</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J54" s="42">
         <v>8174</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="42">
         <v>290</v>
       </c>
-      <c r="L54" s="52">
+      <c r="L54" s="42">
         <v>1230</v>
       </c>
     </row>
@@ -6708,10 +6714,10 @@
       <c r="B55" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="42">
         <v>228</v>
       </c>
       <c r="E55" t="s">
@@ -6723,16 +6729,16 @@
       <c r="H55" t="s">
         <v>257</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="42">
         <v>59668</v>
       </c>
-      <c r="J55" s="52">
+      <c r="J55" s="42">
         <v>30172</v>
       </c>
-      <c r="K55" s="52">
+      <c r="K55" s="42">
         <v>1736</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="42">
         <v>27760</v>
       </c>
     </row>
@@ -6740,10 +6746,10 @@
       <c r="B56" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="42">
         <v>12770</v>
       </c>
       <c r="E56" t="s">
@@ -6755,16 +6761,16 @@
       <c r="H56" t="s">
         <v>260</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="42">
         <v>40211</v>
       </c>
-      <c r="J56" s="52">
+      <c r="J56" s="42">
         <v>26028</v>
       </c>
-      <c r="K56" s="52">
+      <c r="K56" s="42">
         <v>762</v>
       </c>
-      <c r="L56" s="52">
+      <c r="L56" s="42">
         <v>13421</v>
       </c>
     </row>
@@ -6772,10 +6778,10 @@
       <c r="B57" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="42">
         <v>246810</v>
       </c>
       <c r="E57" t="s">
@@ -6787,16 +6793,16 @@
       <c r="H57" t="s">
         <v>263</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="42">
         <v>145371</v>
       </c>
-      <c r="J57" s="52">
+      <c r="J57" s="42">
         <v>19815</v>
       </c>
-      <c r="K57" s="52">
+      <c r="K57" s="42">
         <v>3677</v>
       </c>
-      <c r="L57" s="52">
+      <c r="L57" s="42">
         <v>121879</v>
       </c>
     </row>
@@ -6804,10 +6810,10 @@
       <c r="B58" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="42">
         <v>86048</v>
       </c>
       <c r="E58" t="s">
@@ -6816,19 +6822,19 @@
       <c r="G58" t="s">
         <v>264</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="I58" s="52">
+      <c r="I58" s="42">
         <v>332981</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="42">
         <v>100482</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="42">
         <v>16292</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="42">
         <v>216206</v>
       </c>
     </row>
@@ -6839,7 +6845,7 @@
       <c r="C59" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="42">
         <v>14508</v>
       </c>
       <c r="E59" t="s">
@@ -6851,16 +6857,16 @@
       <c r="H59" t="s">
         <v>271</v>
       </c>
-      <c r="I59" s="52">
+      <c r="I59" s="42">
         <v>78252</v>
       </c>
-      <c r="J59" s="52">
+      <c r="J59" s="42">
         <v>43560</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="42">
         <v>1817</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="42">
         <v>32875</v>
       </c>
     </row>
@@ -6871,7 +6877,7 @@
       <c r="C60" t="s">
         <v>273</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="42">
         <v>40117</v>
       </c>
       <c r="G60" t="s">
@@ -6880,16 +6886,16 @@
       <c r="H60" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="52">
+      <c r="I60" s="42">
         <v>1142867</v>
       </c>
-      <c r="J60" s="52">
+      <c r="J60" s="42">
         <v>509809</v>
       </c>
-      <c r="K60" s="52">
+      <c r="K60" s="42">
         <v>210383</v>
       </c>
-      <c r="L60" s="52">
+      <c r="L60" s="42">
         <v>422674</v>
       </c>
     </row>
@@ -6900,7 +6906,7 @@
       <c r="C61" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="42">
         <v>88209</v>
       </c>
       <c r="G61" t="s">
@@ -6909,16 +6915,16 @@
       <c r="H61" t="s">
         <v>277</v>
       </c>
-      <c r="I61" s="52">
+      <c r="I61" s="42">
         <v>1020079</v>
       </c>
-      <c r="J61" s="52">
+      <c r="J61" s="42">
         <v>573627</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="42">
         <v>216863</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="42">
         <v>229589</v>
       </c>
     </row>
@@ -6929,7 +6935,7 @@
       <c r="C62" t="s">
         <v>279</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="42">
         <v>191101</v>
       </c>
       <c r="G62" t="s">
@@ -6938,16 +6944,16 @@
       <c r="H62" t="s">
         <v>280</v>
       </c>
-      <c r="I62" s="52">
+      <c r="I62" s="42">
         <v>565836</v>
       </c>
-      <c r="J62" s="52">
+      <c r="J62" s="42">
         <v>320031</v>
       </c>
-      <c r="K62" s="52">
+      <c r="K62" s="42">
         <v>34977</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="42">
         <v>210828</v>
       </c>
     </row>
@@ -6958,7 +6964,7 @@
       <c r="C63" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="42">
         <v>76959</v>
       </c>
       <c r="G63" t="s">
@@ -6967,16 +6973,16 @@
       <c r="H63" t="s">
         <v>283</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="42">
         <v>117693</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="42">
         <v>48445</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="42">
         <v>22055</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="42">
         <v>47193</v>
       </c>
     </row>
@@ -6987,7 +6993,7 @@
       <c r="C64" t="s">
         <v>285</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="42">
         <v>112928</v>
       </c>
       <c r="G64" t="s">
@@ -6996,16 +7002,16 @@
       <c r="H64" t="s">
         <v>286</v>
       </c>
-      <c r="I64" s="52">
+      <c r="I64" s="42">
         <v>44301</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="42">
         <v>24226</v>
       </c>
-      <c r="K64" s="52">
+      <c r="K64" s="42">
         <v>208</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="42">
         <v>19867</v>
       </c>
     </row>
@@ -7016,7 +7022,7 @@
       <c r="C65" t="s">
         <v>288</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="42">
         <v>55962</v>
       </c>
       <c r="G65" t="s">
@@ -7025,16 +7031,16 @@
       <c r="H65" t="s">
         <v>289</v>
       </c>
-      <c r="I65" s="52">
+      <c r="I65" s="42">
         <v>15792</v>
       </c>
-      <c r="J65" s="52">
+      <c r="J65" s="42">
         <v>7322</v>
       </c>
-      <c r="K65" s="52">
+      <c r="K65" s="42">
         <v>867</v>
       </c>
-      <c r="L65" s="52">
+      <c r="L65" s="42">
         <v>7603</v>
       </c>
     </row>
@@ -7045,7 +7051,7 @@
       <c r="C66" t="s">
         <v>291</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="42">
         <v>212844</v>
       </c>
       <c r="G66" t="s">
@@ -7054,16 +7060,16 @@
       <c r="H66" t="s">
         <v>292</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="42">
         <v>149029</v>
       </c>
-      <c r="J66" s="52">
+      <c r="J66" s="42">
         <v>92014</v>
       </c>
-      <c r="K66" s="52">
+      <c r="K66" s="42">
         <v>4144</v>
       </c>
-      <c r="L66" s="52">
+      <c r="L66" s="42">
         <v>52871</v>
       </c>
     </row>
@@ -7074,7 +7080,7 @@
       <c r="C67" t="s">
         <v>294</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="42">
         <v>69028</v>
       </c>
       <c r="G67" t="s">
@@ -7083,16 +7089,16 @@
       <c r="H67" t="s">
         <v>295</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="42">
         <v>42197</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="42">
         <v>19815</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="42">
         <v>1708</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="42">
         <v>20673</v>
       </c>
     </row>
@@ -7103,7 +7109,7 @@
       <c r="C68" t="s">
         <v>297</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="42">
         <v>105415</v>
       </c>
       <c r="G68" t="s">
@@ -7112,16 +7118,16 @@
       <c r="H68" t="s">
         <v>298</v>
       </c>
-      <c r="I68" s="52">
+      <c r="I68" s="42">
         <v>36810</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="42">
         <v>7146</v>
       </c>
-      <c r="K68" s="52">
+      <c r="K68" s="42">
         <v>2951</v>
       </c>
-      <c r="L68" s="52">
+      <c r="L68" s="42">
         <v>26712</v>
       </c>
     </row>
@@ -7132,7 +7138,7 @@
       <c r="C69" t="s">
         <v>300</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="42">
         <v>111108</v>
       </c>
       <c r="G69" t="s">
@@ -7141,16 +7147,16 @@
       <c r="H69" t="s">
         <v>301</v>
       </c>
-      <c r="I69" s="52">
+      <c r="I69" s="42">
         <v>108074</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="42">
         <v>77801</v>
       </c>
-      <c r="K69" s="52">
+      <c r="K69" s="42">
         <v>2263</v>
       </c>
-      <c r="L69" s="52">
+      <c r="L69" s="42">
         <v>28010</v>
       </c>
     </row>
@@ -7161,7 +7167,7 @@
       <c r="C70" t="s">
         <v>303</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="42">
         <v>209093</v>
       </c>
       <c r="G70" t="s">
@@ -7170,16 +7176,16 @@
       <c r="H70" t="s">
         <v>304</v>
       </c>
-      <c r="I70" s="52">
+      <c r="I70" s="42">
         <v>51940</v>
       </c>
-      <c r="J70" s="52">
+      <c r="J70" s="42">
         <v>43261</v>
       </c>
-      <c r="K70" s="52">
+      <c r="K70" s="42">
         <v>781</v>
       </c>
-      <c r="L70" s="52">
+      <c r="L70" s="42">
         <v>7898</v>
       </c>
     </row>
@@ -7190,7 +7196,7 @@
       <c r="C71" t="s">
         <v>306</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="42">
         <v>113347</v>
       </c>
       <c r="G71" t="s">
@@ -7199,16 +7205,16 @@
       <c r="H71" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="52">
+      <c r="I71" s="42">
         <v>906938</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="42">
         <v>318675</v>
       </c>
-      <c r="K71" s="52">
+      <c r="K71" s="42">
         <v>55293</v>
       </c>
-      <c r="L71" s="52">
+      <c r="L71" s="42">
         <v>532970</v>
       </c>
     </row>
@@ -7219,7 +7225,7 @@
       <c r="C72" t="s">
         <v>309</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="42">
         <v>29072</v>
       </c>
       <c r="G72" t="s">
@@ -7228,16 +7234,16 @@
       <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="42">
         <v>223597</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J72" s="42">
         <v>114787</v>
       </c>
-      <c r="K72" s="52">
+      <c r="K72" s="42">
         <v>5467</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L72" s="42">
         <v>103343</v>
       </c>
     </row>
@@ -7248,7 +7254,7 @@
       <c r="C73" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="52">
+      <c r="D73" s="42">
         <v>20986</v>
       </c>
       <c r="G73" t="s">
@@ -7257,16 +7263,16 @@
       <c r="H73" t="s">
         <v>313</v>
       </c>
-      <c r="I73" s="52">
+      <c r="I73" s="42">
         <v>87592</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="42">
         <v>34244</v>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="42">
         <v>6467</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="42">
         <v>46882</v>
       </c>
     </row>
@@ -7277,7 +7283,7 @@
       <c r="C74" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="42">
         <v>25586</v>
       </c>
       <c r="G74" t="s">
@@ -7286,16 +7292,16 @@
       <c r="H74" t="s">
         <v>316</v>
       </c>
-      <c r="I74" s="52">
+      <c r="I74" s="42">
         <v>426113</v>
       </c>
-      <c r="J74" s="52">
+      <c r="J74" s="42">
         <v>112649</v>
       </c>
-      <c r="K74" s="52">
+      <c r="K74" s="42">
         <v>39472</v>
       </c>
-      <c r="L74" s="52">
+      <c r="L74" s="42">
         <v>273993</v>
       </c>
     </row>
@@ -7306,7 +7312,7 @@
       <c r="C75" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D75" s="42">
         <v>25364</v>
       </c>
       <c r="G75" t="s">
@@ -7315,16 +7321,16 @@
       <c r="H75" t="s">
         <v>319</v>
       </c>
-      <c r="I75" s="52">
+      <c r="I75" s="42">
         <v>169636</v>
       </c>
-      <c r="J75" s="52">
+      <c r="J75" s="42">
         <v>56995</v>
       </c>
-      <c r="K75" s="52">
+      <c r="K75" s="42">
         <v>3888</v>
       </c>
-      <c r="L75" s="52">
+      <c r="L75" s="42">
         <v>108752</v>
       </c>
     </row>
@@ -7332,10 +7338,10 @@
       <c r="B76" t="s">
         <v>320</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="42">
         <v>8343</v>
       </c>
       <c r="E76" t="s">
@@ -7347,16 +7353,16 @@
       <c r="H76" t="s">
         <v>323</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="42">
         <v>3749038</v>
       </c>
-      <c r="J76" s="52">
+      <c r="J76" s="42">
         <v>852412</v>
       </c>
-      <c r="K76" s="52">
+      <c r="K76" s="42">
         <v>319509</v>
       </c>
-      <c r="L76" s="52">
+      <c r="L76" s="42">
         <v>2577118</v>
       </c>
     </row>
@@ -7364,10 +7370,10 @@
       <c r="B77" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="42">
         <v>25886</v>
       </c>
       <c r="E77" t="s">
@@ -7379,16 +7385,16 @@
       <c r="H77" t="s">
         <v>327</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I77" s="42">
         <v>1363092</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="42">
         <v>715705</v>
       </c>
-      <c r="K77" s="52">
+      <c r="K77" s="42">
         <v>63497</v>
       </c>
-      <c r="L77" s="52">
+      <c r="L77" s="42">
         <v>583890</v>
       </c>
     </row>
@@ -7396,10 +7402,10 @@
       <c r="B78" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="42">
         <v>8215</v>
       </c>
       <c r="E78" t="s">
@@ -7411,16 +7417,16 @@
       <c r="H78" t="s">
         <v>330</v>
       </c>
-      <c r="I78" s="52">
+      <c r="I78" s="42">
         <v>560763</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="42">
         <v>236473</v>
       </c>
-      <c r="K78" s="52">
+      <c r="K78" s="42">
         <v>17390</v>
       </c>
-      <c r="L78" s="52">
+      <c r="L78" s="42">
         <v>306900</v>
       </c>
     </row>
@@ -7428,10 +7434,10 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="42">
         <v>27726</v>
       </c>
       <c r="E79" t="s">
@@ -7443,16 +7449,16 @@
       <c r="H79" t="s">
         <v>333</v>
       </c>
-      <c r="I79" s="52">
+      <c r="I79" s="42">
         <v>230878</v>
       </c>
-      <c r="J79" s="52">
+      <c r="J79" s="42">
         <v>227418</v>
       </c>
-      <c r="K79" s="52">
+      <c r="K79" s="42">
         <v>5065</v>
       </c>
-      <c r="L79" s="52">
+      <c r="L79" s="42">
         <v>-1604</v>
       </c>
     </row>
@@ -7460,10 +7466,10 @@
       <c r="B80" t="s">
         <v>334</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="42">
         <v>6454</v>
       </c>
       <c r="E80" t="s">
@@ -7475,16 +7481,16 @@
       <c r="H80" t="s">
         <v>336</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="42">
         <v>554081</v>
       </c>
-      <c r="J80" s="52">
+      <c r="J80" s="42">
         <v>250693</v>
       </c>
-      <c r="K80" s="52">
+      <c r="K80" s="42">
         <v>40312</v>
       </c>
-      <c r="L80" s="52">
+      <c r="L80" s="42">
         <v>263076</v>
       </c>
     </row>
@@ -7492,10 +7498,10 @@
       <c r="B81" t="s">
         <v>337</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="42">
         <v>11048</v>
       </c>
       <c r="E81" t="s">
@@ -7507,16 +7513,16 @@
       <c r="H81" t="s">
         <v>339</v>
       </c>
-      <c r="I81" s="52">
+      <c r="I81" s="42">
         <v>17371</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="42">
         <v>1121</v>
       </c>
-      <c r="K81" s="52">
+      <c r="K81" s="42">
         <v>731</v>
       </c>
-      <c r="L81" s="52">
+      <c r="L81" s="42">
         <v>15519</v>
       </c>
     </row>
@@ -7524,10 +7530,10 @@
       <c r="B82" t="s">
         <v>340</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="42">
         <v>7478</v>
       </c>
       <c r="E82" t="s">
@@ -7539,16 +7545,16 @@
       <c r="H82" t="s">
         <v>342</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="42">
         <v>2385946</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="42">
         <v>136707</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="42">
         <v>256012</v>
       </c>
-      <c r="L82" s="52">
+      <c r="L82" s="42">
         <v>1993228</v>
       </c>
     </row>
@@ -7556,10 +7562,10 @@
       <c r="B83" t="s">
         <v>343</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="42">
         <v>5424</v>
       </c>
       <c r="E83" t="s">
@@ -7571,16 +7577,16 @@
       <c r="H83" t="s">
         <v>345</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="42">
         <v>2180002</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="42">
         <v>102208</v>
       </c>
-      <c r="K83" s="52">
+      <c r="K83" s="42">
         <v>237200</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="42">
         <v>1840595</v>
       </c>
     </row>
@@ -7588,10 +7594,10 @@
       <c r="B84" t="s">
         <v>346</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="42">
         <v>4452</v>
       </c>
       <c r="E84" t="s">
@@ -7603,16 +7609,16 @@
       <c r="H84" t="s">
         <v>348</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="42">
         <v>205944</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="42">
         <v>34499</v>
       </c>
-      <c r="K84" s="52">
+      <c r="K84" s="42">
         <v>18812</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="42">
         <v>152633</v>
       </c>
     </row>
@@ -7620,10 +7626,10 @@
       <c r="B85" t="s">
         <v>349</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="D85" s="52">
+      <c r="D85" s="42">
         <v>3903</v>
       </c>
       <c r="E85" t="s">
@@ -7635,16 +7641,16 @@
       <c r="H85" t="s">
         <v>351</v>
       </c>
-      <c r="I85" s="52">
+      <c r="I85" s="42">
         <v>2236932</v>
       </c>
-      <c r="J85" s="52">
+      <c r="J85" s="42">
         <v>1609923</v>
       </c>
-      <c r="K85" s="52">
+      <c r="K85" s="42">
         <v>55918</v>
       </c>
-      <c r="L85" s="52">
+      <c r="L85" s="42">
         <v>571091</v>
       </c>
     </row>
@@ -7652,10 +7658,10 @@
       <c r="B86" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="42">
         <v>5966</v>
       </c>
       <c r="E86" t="s">
@@ -7667,16 +7673,16 @@
       <c r="H86" t="s">
         <v>354</v>
       </c>
-      <c r="I86" s="52">
+      <c r="I86" s="42">
         <v>1348595</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J86" s="42">
         <v>909431</v>
       </c>
-      <c r="K86" s="52">
+      <c r="K86" s="42">
         <v>35128</v>
       </c>
-      <c r="L86" s="52">
+      <c r="L86" s="42">
         <v>404035</v>
       </c>
     </row>
@@ -7684,10 +7690,10 @@
       <c r="B87" t="s">
         <v>355</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="42">
         <v>4223</v>
       </c>
       <c r="E87" t="s">
@@ -7699,16 +7705,16 @@
       <c r="H87" t="s">
         <v>357</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="42">
         <v>238595</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="42">
         <v>122863</v>
       </c>
-      <c r="K87" s="52">
+      <c r="K87" s="42">
         <v>15945</v>
       </c>
-      <c r="L87" s="52">
+      <c r="L87" s="42">
         <v>99788</v>
       </c>
     </row>
@@ -7716,10 +7722,10 @@
       <c r="B88" t="s">
         <v>358</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="42">
         <v>88262</v>
       </c>
       <c r="E88" t="s">
@@ -7731,16 +7737,16 @@
       <c r="H88" t="s">
         <v>361</v>
       </c>
-      <c r="I88" s="52">
+      <c r="I88" s="42">
         <v>284785</v>
       </c>
-      <c r="J88" s="52">
+      <c r="J88" s="42">
         <v>234630</v>
       </c>
-      <c r="K88" s="52">
+      <c r="K88" s="42">
         <v>5942</v>
       </c>
-      <c r="L88" s="52">
+      <c r="L88" s="42">
         <v>44213</v>
       </c>
     </row>
@@ -7748,10 +7754,10 @@
       <c r="B89" t="s">
         <v>362</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="D89" s="52">
+      <c r="D89" s="42">
         <v>20810</v>
       </c>
       <c r="E89" t="s">
@@ -7763,16 +7769,16 @@
       <c r="H89" t="s">
         <v>364</v>
       </c>
-      <c r="I89" s="52">
+      <c r="I89" s="42">
         <v>825215</v>
       </c>
-      <c r="J89" s="52">
+      <c r="J89" s="42">
         <v>551939</v>
       </c>
-      <c r="K89" s="52">
+      <c r="K89" s="42">
         <v>13242</v>
       </c>
-      <c r="L89" s="52">
+      <c r="L89" s="42">
         <v>260034</v>
       </c>
     </row>
@@ -7783,7 +7789,7 @@
       <c r="C90" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="42">
         <v>6183</v>
       </c>
       <c r="E90" t="s">
@@ -7795,16 +7801,16 @@
       <c r="H90" t="s">
         <v>368</v>
       </c>
-      <c r="I90" s="52">
+      <c r="I90" s="42">
         <v>347961</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="42">
         <v>302345</v>
       </c>
-      <c r="K90" s="52">
+      <c r="K90" s="42">
         <v>8494</v>
       </c>
-      <c r="L90" s="52">
+      <c r="L90" s="42">
         <v>37122</v>
       </c>
     </row>
@@ -7815,7 +7821,7 @@
       <c r="C91" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="42">
         <v>5743</v>
       </c>
       <c r="E91" t="s">
@@ -7827,16 +7833,16 @@
       <c r="H91" t="s">
         <v>371</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="42">
         <v>540376</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="42">
         <v>398148</v>
       </c>
-      <c r="K91" s="52">
+      <c r="K91" s="42">
         <v>12295</v>
       </c>
-      <c r="L91" s="52">
+      <c r="L91" s="42">
         <v>129933</v>
       </c>
     </row>
@@ -7847,7 +7853,7 @@
       <c r="C92" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="42">
         <v>25691</v>
       </c>
       <c r="E92" t="s">
@@ -7859,16 +7865,16 @@
       <c r="H92" t="s">
         <v>374</v>
       </c>
-      <c r="I92" s="52">
+      <c r="I92" s="42">
         <v>492465</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="42">
         <v>371539</v>
       </c>
-      <c r="K92" s="52">
+      <c r="K92" s="42">
         <v>8972</v>
       </c>
-      <c r="L92" s="52">
+      <c r="L92" s="42">
         <v>111954</v>
       </c>
     </row>
@@ -7879,7 +7885,7 @@
       <c r="C93" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="42">
         <v>10560</v>
       </c>
       <c r="E93" t="s">
@@ -7891,16 +7897,16 @@
       <c r="H93" t="s">
         <v>377</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="42">
         <v>47911</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="42">
         <v>26608</v>
       </c>
-      <c r="K93" s="52">
+      <c r="K93" s="42">
         <v>3323</v>
       </c>
-      <c r="L93" s="52">
+      <c r="L93" s="42">
         <v>17979</v>
       </c>
     </row>
@@ -7911,7 +7917,7 @@
       <c r="C94" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="42">
         <v>19585</v>
       </c>
       <c r="E94" t="s">
@@ -7923,16 +7929,16 @@
       <c r="H94" t="s">
         <v>380</v>
       </c>
-      <c r="I94" s="52">
+      <c r="I94" s="42">
         <v>1571003</v>
       </c>
-      <c r="J94" s="52">
+      <c r="J94" s="42">
         <v>1265582</v>
       </c>
-      <c r="K94" s="52">
+      <c r="K94" s="42">
         <v>35545</v>
       </c>
-      <c r="L94" s="52">
+      <c r="L94" s="42">
         <v>269876</v>
       </c>
     </row>
@@ -7943,7 +7949,7 @@
       <c r="C95" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="42">
         <v>18298</v>
       </c>
       <c r="E95" t="s">
@@ -7955,16 +7961,16 @@
       <c r="H95" t="s">
         <v>383</v>
       </c>
-      <c r="I95" s="52">
+      <c r="I95" s="42">
         <v>233438</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="42">
         <v>180447</v>
       </c>
-      <c r="K95" s="52">
+      <c r="K95" s="42">
         <v>8387</v>
       </c>
-      <c r="L95" s="52">
+      <c r="L95" s="42">
         <v>44604</v>
       </c>
     </row>
@@ -7972,10 +7978,10 @@
       <c r="B96" t="s">
         <v>384</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="42">
         <v>17948</v>
       </c>
       <c r="E96" t="s">
@@ -7987,16 +7993,16 @@
       <c r="H96" t="s">
         <v>386</v>
       </c>
-      <c r="I96" s="52">
+      <c r="I96" s="42">
         <v>1337565</v>
       </c>
-      <c r="J96" s="52">
+      <c r="J96" s="42">
         <v>1085134</v>
       </c>
-      <c r="K96" s="52">
+      <c r="K96" s="42">
         <v>27158</v>
       </c>
-      <c r="L96" s="52">
+      <c r="L96" s="42">
         <v>225272</v>
       </c>
     </row>
@@ -8007,7 +8013,7 @@
       <c r="C97" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="42">
         <v>14034</v>
       </c>
       <c r="E97" t="s">
@@ -8019,16 +8025,16 @@
       <c r="H97" t="s">
         <v>389</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="42">
         <v>644175</v>
       </c>
-      <c r="J97" s="52">
+      <c r="J97" s="42">
         <v>494895</v>
       </c>
-      <c r="K97" s="52">
+      <c r="K97" s="42">
         <v>8566</v>
       </c>
-      <c r="L97" s="52">
+      <c r="L97" s="42">
         <v>140714</v>
       </c>
     </row>
@@ -8039,7 +8045,7 @@
       <c r="C98" t="s">
         <v>391</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="42">
         <v>7884</v>
       </c>
       <c r="G98" t="s">
@@ -8048,16 +8054,16 @@
       <c r="H98" t="s">
         <v>392</v>
       </c>
-      <c r="I98" s="52">
+      <c r="I98" s="42">
         <v>581331</v>
       </c>
-      <c r="J98" s="52">
+      <c r="J98" s="42">
         <v>489855</v>
       </c>
-      <c r="K98" s="52">
+      <c r="K98" s="42">
         <v>16768</v>
       </c>
-      <c r="L98" s="52">
+      <c r="L98" s="42">
         <v>74709</v>
       </c>
     </row>
@@ -8068,7 +8074,7 @@
       <c r="C99" t="s">
         <v>394</v>
       </c>
-      <c r="D99" s="52">
+      <c r="D99" s="42">
         <v>13425</v>
       </c>
       <c r="G99" t="s">
@@ -8077,16 +8083,16 @@
       <c r="H99" t="s">
         <v>395</v>
       </c>
-      <c r="I99" s="52">
+      <c r="I99" s="42">
         <v>112058</v>
       </c>
-      <c r="J99" s="52">
+      <c r="J99" s="42">
         <v>100385</v>
       </c>
-      <c r="K99" s="52">
+      <c r="K99" s="42">
         <v>1824</v>
       </c>
-      <c r="L99" s="52">
+      <c r="L99" s="42">
         <v>9849</v>
       </c>
     </row>
@@ -8097,7 +8103,7 @@
       <c r="C100" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="42">
         <v>11837</v>
       </c>
       <c r="G100" t="s">
@@ -8106,16 +8112,16 @@
       <c r="H100" t="s">
         <v>398</v>
       </c>
-      <c r="I100" s="52">
+      <c r="I100" s="42">
         <v>746773</v>
       </c>
-      <c r="J100" s="52">
+      <c r="J100" s="42">
         <v>441746</v>
       </c>
-      <c r="K100" s="52">
+      <c r="K100" s="42">
         <v>96713</v>
       </c>
-      <c r="L100" s="52">
+      <c r="L100" s="42">
         <v>208314</v>
       </c>
     </row>
@@ -8126,7 +8132,7 @@
       <c r="C101" t="s">
         <v>400</v>
       </c>
-      <c r="D101" s="52">
+      <c r="D101" s="42">
         <v>10007</v>
       </c>
       <c r="G101" t="s">
@@ -8135,16 +8141,16 @@
       <c r="H101" t="s">
         <v>401</v>
       </c>
-      <c r="I101" s="52">
+      <c r="I101" s="42">
         <v>193468</v>
       </c>
-      <c r="J101" s="52">
+      <c r="J101" s="42">
         <v>100888</v>
       </c>
-      <c r="K101" s="52">
+      <c r="K101" s="42">
         <v>19506</v>
       </c>
-      <c r="L101" s="52">
+      <c r="L101" s="42">
         <v>73075</v>
       </c>
     </row>
@@ -8155,7 +8161,7 @@
       <c r="C102" t="s">
         <v>403</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="42">
         <v>45291</v>
       </c>
       <c r="G102" t="s">
@@ -8164,16 +8170,16 @@
       <c r="H102" t="s">
         <v>404</v>
       </c>
-      <c r="I102" s="52">
+      <c r="I102" s="42">
         <v>112849</v>
       </c>
-      <c r="J102" s="52">
+      <c r="J102" s="42">
         <v>52218</v>
       </c>
-      <c r="K102" s="52">
+      <c r="K102" s="42">
         <v>8029</v>
       </c>
-      <c r="L102" s="52">
+      <c r="L102" s="42">
         <v>52602</v>
       </c>
     </row>
@@ -8184,7 +8190,7 @@
       <c r="C103" t="s">
         <v>406</v>
       </c>
-      <c r="D103" s="52">
+      <c r="D103" s="42">
         <v>40189</v>
       </c>
       <c r="G103" t="s">
@@ -8193,16 +8199,16 @@
       <c r="H103" t="s">
         <v>407</v>
       </c>
-      <c r="I103" s="52">
+      <c r="I103" s="42">
         <v>80619</v>
       </c>
-      <c r="J103" s="52">
+      <c r="J103" s="42">
         <v>48669</v>
       </c>
-      <c r="K103" s="52">
+      <c r="K103" s="42">
         <v>11476</v>
       </c>
-      <c r="L103" s="52">
+      <c r="L103" s="42">
         <v>20473</v>
       </c>
     </row>
@@ -8213,7 +8219,7 @@
       <c r="C104" t="s">
         <v>409</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="42">
         <v>7536</v>
       </c>
       <c r="G104" t="s">
@@ -8222,16 +8228,16 @@
       <c r="H104" t="s">
         <v>410</v>
       </c>
-      <c r="I104" s="52">
+      <c r="I104" s="42">
         <v>553304</v>
       </c>
-      <c r="J104" s="52">
+      <c r="J104" s="42">
         <v>340858</v>
       </c>
-      <c r="K104" s="52">
+      <c r="K104" s="42">
         <v>77207</v>
       </c>
-      <c r="L104" s="52">
+      <c r="L104" s="42">
         <v>135239</v>
       </c>
     </row>
@@ -8242,7 +8248,7 @@
       <c r="C105" t="s">
         <v>412</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="42">
         <v>9269</v>
       </c>
       <c r="G105" t="s">
@@ -8251,16 +8257,16 @@
       <c r="H105" t="s">
         <v>413</v>
       </c>
-      <c r="I105" s="52">
+      <c r="I105" s="42">
         <v>157517</v>
       </c>
-      <c r="J105" s="52">
+      <c r="J105" s="42">
         <v>77673</v>
       </c>
-      <c r="K105" s="52">
+      <c r="K105" s="42">
         <v>26513</v>
       </c>
-      <c r="L105" s="52">
+      <c r="L105" s="42">
         <v>53331</v>
       </c>
     </row>
@@ -8271,7 +8277,7 @@
       <c r="C106" t="s">
         <v>415</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="42">
         <v>18380</v>
       </c>
       <c r="G106" t="s">
@@ -8280,16 +8286,16 @@
       <c r="H106" t="s">
         <v>416</v>
       </c>
-      <c r="I106" s="52">
+      <c r="I106" s="42">
         <v>395787</v>
       </c>
-      <c r="J106" s="52">
+      <c r="J106" s="42">
         <v>263185</v>
       </c>
-      <c r="K106" s="52">
+      <c r="K106" s="42">
         <v>50694</v>
       </c>
-      <c r="L106" s="52">
+      <c r="L106" s="42">
         <v>81908</v>
       </c>
     </row>
@@ -8300,7 +8306,7 @@
       <c r="C107" t="s">
         <v>418</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="42">
         <v>8253</v>
       </c>
       <c r="G107" t="s">
@@ -8309,16 +8315,16 @@
       <c r="H107" t="s">
         <v>419</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="42">
         <v>391569</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="42">
         <v>286397</v>
       </c>
-      <c r="K107" s="52">
+      <c r="K107" s="42">
         <v>21390</v>
       </c>
-      <c r="L107" s="52">
+      <c r="L107" s="42">
         <v>83782</v>
       </c>
     </row>
@@ -8329,7 +8335,7 @@
       <c r="C108" t="s">
         <v>421</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="42">
         <v>8828</v>
       </c>
       <c r="G108" t="s">
@@ -8338,16 +8344,16 @@
       <c r="H108" t="s">
         <v>422</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="42">
         <v>2339442</v>
       </c>
-      <c r="J108" s="52">
+      <c r="J108" s="42">
         <v>1846322</v>
       </c>
-      <c r="K108" s="52">
+      <c r="K108" s="42">
         <v>-24531</v>
       </c>
-      <c r="L108" s="52">
+      <c r="L108" s="42">
         <v>517651</v>
       </c>
     </row>
@@ -8358,7 +8364,7 @@
       <c r="C109" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="52">
+      <c r="D109" s="42">
         <v>39168</v>
       </c>
       <c r="G109" t="s">
@@ -8367,16 +8373,16 @@
       <c r="H109" t="s">
         <v>425</v>
       </c>
-      <c r="I109" s="52">
+      <c r="I109" s="42">
         <v>731280</v>
       </c>
-      <c r="J109" s="52">
+      <c r="J109" s="42">
         <v>469030</v>
       </c>
-      <c r="K109" s="52">
+      <c r="K109" s="42">
         <v>-6001</v>
       </c>
-      <c r="L109" s="52">
+      <c r="L109" s="42">
         <v>268250</v>
       </c>
     </row>
@@ -8387,7 +8393,7 @@
       <c r="C110" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="42">
         <v>28288</v>
       </c>
       <c r="G110" t="s">
@@ -8396,16 +8402,16 @@
       <c r="H110" t="s">
         <v>428</v>
       </c>
-      <c r="I110" s="52">
+      <c r="I110" s="42">
         <v>673658</v>
       </c>
-      <c r="J110" s="52">
+      <c r="J110" s="42">
         <v>409923</v>
       </c>
-      <c r="K110" s="52" t="s">
+      <c r="K110" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="L110" s="52">
+      <c r="L110" s="42">
         <v>263735</v>
       </c>
     </row>
@@ -8416,7 +8422,7 @@
       <c r="C111" t="s">
         <v>431</v>
       </c>
-      <c r="D111" s="52">
+      <c r="D111" s="42">
         <v>27221</v>
       </c>
       <c r="G111" t="s">
@@ -8425,16 +8431,16 @@
       <c r="H111" t="s">
         <v>432</v>
       </c>
-      <c r="I111" s="52">
+      <c r="I111" s="42">
         <v>57621</v>
       </c>
-      <c r="J111" s="52">
+      <c r="J111" s="42">
         <v>59107</v>
       </c>
-      <c r="K111" s="52">
+      <c r="K111" s="42">
         <v>-6001</v>
       </c>
-      <c r="L111" s="52">
+      <c r="L111" s="42">
         <v>4515</v>
       </c>
     </row>
@@ -8445,7 +8451,7 @@
       <c r="C112" t="s">
         <v>434</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="42">
         <v>4004</v>
       </c>
       <c r="G112" t="s">
@@ -8454,16 +8460,16 @@
       <c r="H112" t="s">
         <v>435</v>
       </c>
-      <c r="I112" s="52">
+      <c r="I112" s="42">
         <v>1608162</v>
       </c>
-      <c r="J112" s="52">
+      <c r="J112" s="42">
         <v>1377292</v>
       </c>
-      <c r="K112" s="52">
+      <c r="K112" s="42">
         <v>-18530</v>
       </c>
-      <c r="L112" s="52">
+      <c r="L112" s="42">
         <v>249400</v>
       </c>
     </row>
@@ -8474,7 +8480,7 @@
       <c r="C113" t="s">
         <v>437</v>
       </c>
-      <c r="D113" s="52">
+      <c r="D113" s="42">
         <v>28050</v>
       </c>
       <c r="G113" t="s">
@@ -8483,16 +8489,16 @@
       <c r="H113" t="s">
         <v>438</v>
       </c>
-      <c r="I113" s="52">
+      <c r="I113" s="42">
         <v>1467317</v>
       </c>
-      <c r="J113" s="52">
+      <c r="J113" s="42">
         <v>1275273</v>
       </c>
-      <c r="K113" s="52" t="s">
+      <c r="K113" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="L113" s="52">
+      <c r="L113" s="42">
         <v>192044</v>
       </c>
     </row>
@@ -8503,7 +8509,7 @@
       <c r="C114" t="s">
         <v>440</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="42">
         <v>6997</v>
       </c>
       <c r="G114" t="s">
@@ -8512,16 +8518,16 @@
       <c r="H114" t="s">
         <v>441</v>
       </c>
-      <c r="I114" s="52">
+      <c r="I114" s="42">
         <v>140845</v>
       </c>
-      <c r="J114" s="52">
+      <c r="J114" s="42">
         <v>102019</v>
       </c>
-      <c r="K114" s="52">
+      <c r="K114" s="42">
         <v>-18530</v>
       </c>
-      <c r="L114" s="52">
+      <c r="L114" s="42">
         <v>57356</v>
       </c>
     </row>
@@ -8532,13 +8538,13 @@
       <c r="C115" t="s">
         <v>443</v>
       </c>
-      <c r="D115" s="52">
+      <c r="D115" s="42">
         <v>7632</v>
       </c>
       <c r="H115" t="s">
         <v>444</v>
       </c>
-      <c r="I115" s="52"/>
+      <c r="I115" s="42"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
@@ -8547,7 +8553,7 @@
       <c r="C116" t="s">
         <v>446</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="42">
         <v>13831</v>
       </c>
       <c r="G116" t="s">
@@ -8556,7 +8562,7 @@
       <c r="H116" t="s">
         <v>447</v>
       </c>
-      <c r="I116" s="52">
+      <c r="I116" s="42">
         <v>3268592</v>
       </c>
     </row>
@@ -8567,7 +8573,7 @@
       <c r="C117" t="s">
         <v>449</v>
       </c>
-      <c r="D117" s="52">
+      <c r="D117" s="42">
         <v>15876</v>
       </c>
       <c r="G117" t="s">
@@ -8576,7 +8582,7 @@
       <c r="H117" t="s">
         <v>450</v>
       </c>
-      <c r="I117" s="52">
+      <c r="I117" s="42">
         <v>12630266</v>
       </c>
     </row>
@@ -8587,7 +8593,7 @@
       <c r="C118" t="s">
         <v>452</v>
       </c>
-      <c r="D118" s="52">
+      <c r="D118" s="42">
         <v>30700</v>
       </c>
     </row>
@@ -8598,7 +8604,7 @@
       <c r="C119" t="s">
         <v>454</v>
       </c>
-      <c r="D119" s="52">
+      <c r="D119" s="42">
         <v>9198</v>
       </c>
     </row>
@@ -8609,7 +8615,7 @@
       <c r="C120" t="s">
         <v>456</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="42">
         <v>28981</v>
       </c>
     </row>
@@ -8620,7 +8626,7 @@
       <c r="C121" t="s">
         <v>458</v>
       </c>
-      <c r="D121" s="52">
+      <c r="D121" s="42">
         <v>21607</v>
       </c>
     </row>
@@ -8631,7 +8637,7 @@
       <c r="C122" t="s">
         <v>460</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="42">
         <v>6176</v>
       </c>
     </row>
@@ -8642,7 +8648,7 @@
       <c r="C123" t="s">
         <v>462</v>
       </c>
-      <c r="D123" s="52">
+      <c r="D123" s="42">
         <v>26748</v>
       </c>
     </row>
@@ -8653,7 +8659,7 @@
       <c r="C124" t="s">
         <v>464</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="42">
         <v>4893</v>
       </c>
     </row>
@@ -8664,7 +8670,7 @@
       <c r="C125" t="s">
         <v>466</v>
       </c>
-      <c r="D125" s="52">
+      <c r="D125" s="42">
         <v>2064</v>
       </c>
     </row>
@@ -8675,7 +8681,7 @@
       <c r="C126" t="s">
         <v>468</v>
       </c>
-      <c r="D126" s="52">
+      <c r="D126" s="42">
         <v>21334</v>
       </c>
     </row>
@@ -8686,7 +8692,7 @@
       <c r="C127" t="s">
         <v>470</v>
       </c>
-      <c r="D127" s="52">
+      <c r="D127" s="42">
         <v>4558</v>
       </c>
     </row>
@@ -8697,7 +8703,7 @@
       <c r="C128" t="s">
         <v>472</v>
       </c>
-      <c r="D128" s="52">
+      <c r="D128" s="42">
         <v>32747</v>
       </c>
     </row>
@@ -8708,7 +8714,7 @@
       <c r="C129" t="s">
         <v>474</v>
       </c>
-      <c r="D129" s="52">
+      <c r="D129" s="42">
         <v>6678</v>
       </c>
     </row>
@@ -8719,7 +8725,7 @@
       <c r="C130" t="s">
         <v>476</v>
       </c>
-      <c r="D130" s="52">
+      <c r="D130" s="42">
         <v>6497</v>
       </c>
     </row>
@@ -8730,7 +8736,7 @@
       <c r="C131" t="s">
         <v>478</v>
       </c>
-      <c r="D131" s="52">
+      <c r="D131" s="42">
         <v>8423</v>
       </c>
     </row>
@@ -8741,7 +8747,7 @@
       <c r="C132" t="s">
         <v>480</v>
       </c>
-      <c r="D132" s="52">
+      <c r="D132" s="42">
         <v>8202</v>
       </c>
     </row>
@@ -8752,7 +8758,7 @@
       <c r="C133" t="s">
         <v>482</v>
       </c>
-      <c r="D133" s="52">
+      <c r="D133" s="42">
         <v>9125</v>
       </c>
     </row>
@@ -8763,7 +8769,7 @@
       <c r="C134" t="s">
         <v>484</v>
       </c>
-      <c r="D134" s="52">
+      <c r="D134" s="42">
         <v>15140</v>
       </c>
     </row>
@@ -8774,7 +8780,7 @@
       <c r="C135" t="s">
         <v>486</v>
       </c>
-      <c r="D135" s="52">
+      <c r="D135" s="42">
         <v>3683</v>
       </c>
     </row>
@@ -8785,7 +8791,7 @@
       <c r="C136" t="s">
         <v>488</v>
       </c>
-      <c r="D136" s="52">
+      <c r="D136" s="42">
         <v>4321</v>
       </c>
     </row>
@@ -8796,7 +8802,7 @@
       <c r="C137" t="s">
         <v>490</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D137" s="42">
         <v>27555</v>
       </c>
     </row>
@@ -8807,7 +8813,7 @@
       <c r="C138" t="s">
         <v>492</v>
       </c>
-      <c r="D138" s="52">
+      <c r="D138" s="42">
         <v>10106</v>
       </c>
     </row>
@@ -8818,7 +8824,7 @@
       <c r="C139" t="s">
         <v>494</v>
       </c>
-      <c r="D139" s="52">
+      <c r="D139" s="42">
         <v>16822</v>
       </c>
     </row>
@@ -8829,7 +8835,7 @@
       <c r="C140" t="s">
         <v>496</v>
       </c>
-      <c r="D140" s="52">
+      <c r="D140" s="42">
         <v>27754</v>
       </c>
     </row>
@@ -8840,7 +8846,7 @@
       <c r="C141" t="s">
         <v>498</v>
       </c>
-      <c r="D141" s="52">
+      <c r="D141" s="42">
         <v>3250</v>
       </c>
     </row>
@@ -8851,7 +8857,7 @@
       <c r="C142" t="s">
         <v>500</v>
       </c>
-      <c r="D142" s="52">
+      <c r="D142" s="42">
         <v>5866</v>
       </c>
     </row>
@@ -8862,7 +8868,7 @@
       <c r="C143" t="s">
         <v>502</v>
       </c>
-      <c r="D143" s="52">
+      <c r="D143" s="42">
         <v>2845</v>
       </c>
     </row>
@@ -8873,7 +8879,7 @@
       <c r="C144" t="s">
         <v>504</v>
       </c>
-      <c r="D144" s="52">
+      <c r="D144" s="42">
         <v>22220</v>
       </c>
     </row>
@@ -8884,7 +8890,7 @@
       <c r="C145" t="s">
         <v>506</v>
       </c>
-      <c r="D145" s="52">
+      <c r="D145" s="42">
         <v>11611</v>
       </c>
     </row>
@@ -8895,7 +8901,7 @@
       <c r="C146" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="52">
+      <c r="D146" s="42">
         <v>12846</v>
       </c>
     </row>
@@ -8906,7 +8912,7 @@
       <c r="C147" t="s">
         <v>510</v>
       </c>
-      <c r="D147" s="52">
+      <c r="D147" s="42">
         <v>8291</v>
       </c>
     </row>
@@ -8917,7 +8923,7 @@
       <c r="C148" t="s">
         <v>512</v>
       </c>
-      <c r="D148" s="52">
+      <c r="D148" s="42">
         <v>10778</v>
       </c>
     </row>
@@ -8928,7 +8934,7 @@
       <c r="C149" t="s">
         <v>514</v>
       </c>
-      <c r="D149" s="52">
+      <c r="D149" s="42">
         <v>11850</v>
       </c>
     </row>
@@ -8939,7 +8945,7 @@
       <c r="C150" t="s">
         <v>516</v>
       </c>
-      <c r="D150" s="52">
+      <c r="D150" s="42">
         <v>33887</v>
       </c>
     </row>
@@ -8950,7 +8956,7 @@
       <c r="C151" t="s">
         <v>518</v>
       </c>
-      <c r="D151" s="52">
+      <c r="D151" s="42">
         <v>6694</v>
       </c>
     </row>
@@ -8961,7 +8967,7 @@
       <c r="C152" t="s">
         <v>520</v>
       </c>
-      <c r="D152" s="52">
+      <c r="D152" s="42">
         <v>57088</v>
       </c>
     </row>
@@ -8972,7 +8978,7 @@
       <c r="C153" t="s">
         <v>522</v>
       </c>
-      <c r="D153" s="52">
+      <c r="D153" s="42">
         <v>20663</v>
       </c>
     </row>
@@ -8983,7 +8989,7 @@
       <c r="C154" t="s">
         <v>524</v>
       </c>
-      <c r="D154" s="52">
+      <c r="D154" s="42">
         <v>32586</v>
       </c>
     </row>
@@ -8994,7 +9000,7 @@
       <c r="C155" t="s">
         <v>526</v>
       </c>
-      <c r="D155" s="52">
+      <c r="D155" s="42">
         <v>28912</v>
       </c>
     </row>
@@ -9005,7 +9011,7 @@
       <c r="C156" t="s">
         <v>528</v>
       </c>
-      <c r="D156" s="52">
+      <c r="D156" s="42">
         <v>47917</v>
       </c>
     </row>
@@ -9016,7 +9022,7 @@
       <c r="C157" t="s">
         <v>530</v>
       </c>
-      <c r="D157" s="52">
+      <c r="D157" s="42">
         <v>2618</v>
       </c>
     </row>
@@ -9027,7 +9033,7 @@
       <c r="C158" t="s">
         <v>532</v>
       </c>
-      <c r="D158" s="52">
+      <c r="D158" s="42">
         <v>11888</v>
       </c>
     </row>
@@ -9038,7 +9044,7 @@
       <c r="C159" t="s">
         <v>534</v>
       </c>
-      <c r="D159" s="52">
+      <c r="D159" s="42">
         <v>5417</v>
       </c>
     </row>
@@ -9049,7 +9055,7 @@
       <c r="C160" t="s">
         <v>536</v>
       </c>
-      <c r="D160" s="52">
+      <c r="D160" s="42">
         <v>11523</v>
       </c>
     </row>
@@ -9060,7 +9066,7 @@
       <c r="C161" t="s">
         <v>538</v>
       </c>
-      <c r="D161" s="52">
+      <c r="D161" s="42">
         <v>17491</v>
       </c>
     </row>
@@ -9071,7 +9077,7 @@
       <c r="C162" t="s">
         <v>540</v>
       </c>
-      <c r="D162" s="52">
+      <c r="D162" s="42">
         <v>10002</v>
       </c>
     </row>
@@ -9082,7 +9088,7 @@
       <c r="C163" t="s">
         <v>542</v>
       </c>
-      <c r="D163" s="52">
+      <c r="D163" s="42">
         <v>12072</v>
       </c>
     </row>
@@ -9093,7 +9099,7 @@
       <c r="C164" t="s">
         <v>544</v>
       </c>
-      <c r="D164" s="52">
+      <c r="D164" s="42">
         <v>2914</v>
       </c>
     </row>
@@ -9104,7 +9110,7 @@
       <c r="C165" t="s">
         <v>546</v>
       </c>
-      <c r="D165" s="52">
+      <c r="D165" s="42">
         <v>2916</v>
       </c>
     </row>
@@ -9115,7 +9121,7 @@
       <c r="C166" t="s">
         <v>548</v>
       </c>
-      <c r="D166" s="52">
+      <c r="D166" s="42">
         <v>1052</v>
       </c>
     </row>
@@ -9126,7 +9132,7 @@
       <c r="C167" t="s">
         <v>550</v>
       </c>
-      <c r="D167" s="52">
+      <c r="D167" s="42">
         <v>11324</v>
       </c>
     </row>
@@ -9137,7 +9143,7 @@
       <c r="C168" t="s">
         <v>552</v>
       </c>
-      <c r="D168" s="52">
+      <c r="D168" s="42">
         <v>3539</v>
       </c>
     </row>
@@ -9148,7 +9154,7 @@
       <c r="C169" t="s">
         <v>554</v>
       </c>
-      <c r="D169" s="52">
+      <c r="D169" s="42">
         <v>4775</v>
       </c>
     </row>
@@ -9159,7 +9165,7 @@
       <c r="C170" t="s">
         <v>556</v>
       </c>
-      <c r="D170" s="52">
+      <c r="D170" s="42">
         <v>3881</v>
       </c>
     </row>
@@ -9170,7 +9176,7 @@
       <c r="C171" t="s">
         <v>558</v>
       </c>
-      <c r="D171" s="52">
+      <c r="D171" s="42">
         <v>3862</v>
       </c>
     </row>
@@ -9181,7 +9187,7 @@
       <c r="C172" t="s">
         <v>560</v>
       </c>
-      <c r="D172" s="52">
+      <c r="D172" s="42">
         <v>5125</v>
       </c>
     </row>
@@ -9192,7 +9198,7 @@
       <c r="C173" t="s">
         <v>562</v>
       </c>
-      <c r="D173" s="52">
+      <c r="D173" s="42">
         <v>5491</v>
       </c>
     </row>
@@ -9203,7 +9209,7 @@
       <c r="C174" t="s">
         <v>564</v>
       </c>
-      <c r="D174" s="52">
+      <c r="D174" s="42">
         <v>10506</v>
       </c>
     </row>
@@ -9214,7 +9220,7 @@
       <c r="C175" t="s">
         <v>566</v>
       </c>
-      <c r="D175" s="52">
+      <c r="D175" s="42">
         <v>11675</v>
       </c>
     </row>
@@ -9225,7 +9231,7 @@
       <c r="C176" t="s">
         <v>568</v>
       </c>
-      <c r="D176" s="52">
+      <c r="D176" s="42">
         <v>10352</v>
       </c>
     </row>
@@ -9236,7 +9242,7 @@
       <c r="C177" t="s">
         <v>570</v>
       </c>
-      <c r="D177" s="52">
+      <c r="D177" s="42">
         <v>8071</v>
       </c>
     </row>
@@ -9247,7 +9253,7 @@
       <c r="C178" t="s">
         <v>572</v>
       </c>
-      <c r="D178" s="52">
+      <c r="D178" s="42">
         <v>3739</v>
       </c>
     </row>
@@ -9258,7 +9264,7 @@
       <c r="C179" t="s">
         <v>574</v>
       </c>
-      <c r="D179" s="52">
+      <c r="D179" s="42">
         <v>14491</v>
       </c>
     </row>
@@ -9269,7 +9275,7 @@
       <c r="C180" t="s">
         <v>576</v>
       </c>
-      <c r="D180" s="52">
+      <c r="D180" s="42">
         <v>13999</v>
       </c>
     </row>
@@ -9280,7 +9286,7 @@
       <c r="C181" t="s">
         <v>578</v>
       </c>
-      <c r="D181" s="52">
+      <c r="D181" s="42">
         <v>3310</v>
       </c>
     </row>
@@ -9291,7 +9297,7 @@
       <c r="C182" t="s">
         <v>580</v>
       </c>
-      <c r="D182" s="52">
+      <c r="D182" s="42">
         <v>10808</v>
       </c>
     </row>
@@ -9302,7 +9308,7 @@
       <c r="C183" t="s">
         <v>582</v>
       </c>
-      <c r="D183" s="52">
+      <c r="D183" s="42">
         <v>67427</v>
       </c>
     </row>
@@ -9313,7 +9319,7 @@
       <c r="C184" t="s">
         <v>584</v>
       </c>
-      <c r="D184" s="52">
+      <c r="D184" s="42">
         <v>267597</v>
       </c>
     </row>
@@ -9324,7 +9330,7 @@
       <c r="C185" t="s">
         <v>586</v>
       </c>
-      <c r="D185" s="52">
+      <c r="D185" s="42">
         <v>35528</v>
       </c>
     </row>
@@ -9335,7 +9341,7 @@
       <c r="C186" t="s">
         <v>588</v>
       </c>
-      <c r="D186" s="52">
+      <c r="D186" s="42">
         <v>14072</v>
       </c>
     </row>
@@ -9346,7 +9352,7 @@
       <c r="C187" t="s">
         <v>590</v>
       </c>
-      <c r="D187" s="52">
+      <c r="D187" s="42">
         <v>10276</v>
       </c>
     </row>
@@ -9357,7 +9363,7 @@
       <c r="C188" t="s">
         <v>592</v>
       </c>
-      <c r="D188" s="52">
+      <c r="D188" s="42">
         <v>4256</v>
       </c>
     </row>
@@ -9368,7 +9374,7 @@
       <c r="C189" t="s">
         <v>594</v>
       </c>
-      <c r="D189" s="52">
+      <c r="D189" s="42">
         <v>14299</v>
       </c>
     </row>
@@ -9379,7 +9385,7 @@
       <c r="C190" t="s">
         <v>596</v>
       </c>
-      <c r="D190" s="52">
+      <c r="D190" s="42">
         <v>34899</v>
       </c>
     </row>
@@ -9390,7 +9396,7 @@
       <c r="C191" t="s">
         <v>598</v>
       </c>
-      <c r="D191" s="52">
+      <c r="D191" s="42">
         <v>25253</v>
       </c>
     </row>
@@ -9401,7 +9407,7 @@
       <c r="C192" t="s">
         <v>600</v>
       </c>
-      <c r="D192" s="52">
+      <c r="D192" s="42">
         <v>38361</v>
       </c>
     </row>
@@ -9412,7 +9418,7 @@
       <c r="C193" t="s">
         <v>602</v>
       </c>
-      <c r="D193" s="52">
+      <c r="D193" s="42">
         <v>32361</v>
       </c>
     </row>
@@ -9423,7 +9429,7 @@
       <c r="C194" t="s">
         <v>604</v>
       </c>
-      <c r="D194" s="52">
+      <c r="D194" s="42">
         <v>37764</v>
       </c>
     </row>
@@ -9434,7 +9440,7 @@
       <c r="C195" t="s">
         <v>606</v>
       </c>
-      <c r="D195" s="52">
+      <c r="D195" s="42">
         <v>68959</v>
       </c>
     </row>
@@ -9445,7 +9451,7 @@
       <c r="C196" t="s">
         <v>608</v>
       </c>
-      <c r="D196" s="52">
+      <c r="D196" s="42">
         <v>26026</v>
       </c>
     </row>
@@ -9456,7 +9462,7 @@
       <c r="C197" t="s">
         <v>610</v>
       </c>
-      <c r="D197" s="52">
+      <c r="D197" s="42">
         <v>137534</v>
       </c>
     </row>
@@ -9467,7 +9473,7 @@
       <c r="C198" t="s">
         <v>612</v>
       </c>
-      <c r="D198" s="52">
+      <c r="D198" s="42">
         <v>50032</v>
       </c>
     </row>
@@ -9478,7 +9484,7 @@
       <c r="C199" t="s">
         <v>614</v>
       </c>
-      <c r="D199" s="52">
+      <c r="D199" s="42">
         <v>40127</v>
       </c>
     </row>
@@ -9489,7 +9495,7 @@
       <c r="C200" t="s">
         <v>616</v>
       </c>
-      <c r="D200" s="52">
+      <c r="D200" s="42">
         <v>21738</v>
       </c>
     </row>
@@ -9500,7 +9506,7 @@
       <c r="C201" t="s">
         <v>618</v>
       </c>
-      <c r="D201" s="52">
+      <c r="D201" s="42">
         <v>5902</v>
       </c>
     </row>
@@ -9511,7 +9517,7 @@
       <c r="C202" t="s">
         <v>620</v>
       </c>
-      <c r="D202" s="52">
+      <c r="D202" s="42">
         <v>21968</v>
       </c>
     </row>
@@ -9522,7 +9528,7 @@
       <c r="C203" t="s">
         <v>622</v>
       </c>
-      <c r="D203" s="52">
+      <c r="D203" s="42">
         <v>26079</v>
       </c>
     </row>
@@ -9533,7 +9539,7 @@
       <c r="C204" t="s">
         <v>624</v>
       </c>
-      <c r="D204" s="52">
+      <c r="D204" s="42">
         <v>9645</v>
       </c>
     </row>
@@ -9544,7 +9550,7 @@
       <c r="C205" t="s">
         <v>626</v>
       </c>
-      <c r="D205" s="52">
+      <c r="D205" s="42">
         <v>6712</v>
       </c>
     </row>
@@ -9555,7 +9561,7 @@
       <c r="C206" t="s">
         <v>628</v>
       </c>
-      <c r="D206" s="52">
+      <c r="D206" s="42">
         <v>4176</v>
       </c>
     </row>
@@ -9566,7 +9572,7 @@
       <c r="C207" t="s">
         <v>630</v>
       </c>
-      <c r="D207" s="52">
+      <c r="D207" s="42">
         <v>9213</v>
       </c>
     </row>
@@ -9577,7 +9583,7 @@
       <c r="C208" t="s">
         <v>632</v>
       </c>
-      <c r="D208" s="52">
+      <c r="D208" s="42">
         <v>15041</v>
       </c>
     </row>
@@ -9588,7 +9594,7 @@
       <c r="C209" t="s">
         <v>634</v>
       </c>
-      <c r="D209" s="52">
+      <c r="D209" s="42">
         <v>11419</v>
       </c>
     </row>
@@ -9599,7 +9605,7 @@
       <c r="C210" t="s">
         <v>636</v>
       </c>
-      <c r="D210" s="52">
+      <c r="D210" s="42">
         <v>4252</v>
       </c>
     </row>
@@ -9610,7 +9616,7 @@
       <c r="C211" t="s">
         <v>638</v>
       </c>
-      <c r="D211" s="52">
+      <c r="D211" s="42">
         <v>4806</v>
       </c>
     </row>
@@ -9621,7 +9627,7 @@
       <c r="C212" t="s">
         <v>640</v>
       </c>
-      <c r="D212" s="52">
+      <c r="D212" s="42">
         <v>3237</v>
       </c>
     </row>
@@ -9632,7 +9638,7 @@
       <c r="C213" t="s">
         <v>642</v>
       </c>
-      <c r="D213" s="52">
+      <c r="D213" s="42">
         <v>7431</v>
       </c>
     </row>
@@ -9643,7 +9649,7 @@
       <c r="C214" t="s">
         <v>644</v>
       </c>
-      <c r="D214" s="52">
+      <c r="D214" s="42">
         <v>17274</v>
       </c>
     </row>
@@ -9654,7 +9660,7 @@
       <c r="C215" t="s">
         <v>646</v>
       </c>
-      <c r="D215" s="52">
+      <c r="D215" s="42">
         <v>10328</v>
       </c>
     </row>
@@ -9665,7 +9671,7 @@
       <c r="C216" t="s">
         <v>648</v>
       </c>
-      <c r="D216" s="52">
+      <c r="D216" s="42">
         <v>43172</v>
       </c>
     </row>
@@ -9676,7 +9682,7 @@
       <c r="C217" t="s">
         <v>650</v>
       </c>
-      <c r="D217" s="52">
+      <c r="D217" s="42">
         <v>36144</v>
       </c>
     </row>
@@ -9687,7 +9693,7 @@
       <c r="C218" t="s">
         <v>652</v>
       </c>
-      <c r="D218" s="52">
+      <c r="D218" s="42">
         <v>4994</v>
       </c>
     </row>
@@ -9698,7 +9704,7 @@
       <c r="C219" t="s">
         <v>654</v>
       </c>
-      <c r="D219" s="52">
+      <c r="D219" s="42">
         <v>8110</v>
       </c>
     </row>
@@ -9709,7 +9715,7 @@
       <c r="C220" t="s">
         <v>656</v>
       </c>
-      <c r="D220" s="52">
+      <c r="D220" s="42">
         <v>5774</v>
       </c>
     </row>
@@ -9720,7 +9726,7 @@
       <c r="C221" t="s">
         <v>658</v>
       </c>
-      <c r="D221" s="52">
+      <c r="D221" s="42">
         <v>8080</v>
       </c>
     </row>
@@ -9731,7 +9737,7 @@
       <c r="C222" t="s">
         <v>660</v>
       </c>
-      <c r="D222" s="52">
+      <c r="D222" s="42">
         <v>10355</v>
       </c>
     </row>
@@ -9742,7 +9748,7 @@
       <c r="C223" t="s">
         <v>662</v>
       </c>
-      <c r="D223" s="52">
+      <c r="D223" s="42">
         <v>1624</v>
       </c>
     </row>
@@ -9753,7 +9759,7 @@
       <c r="C224" t="s">
         <v>664</v>
       </c>
-      <c r="D224" s="52">
+      <c r="D224" s="42">
         <v>3179</v>
       </c>
     </row>
@@ -9764,7 +9770,7 @@
       <c r="C225" t="s">
         <v>666</v>
       </c>
-      <c r="D225" s="52">
+      <c r="D225" s="42">
         <v>13946</v>
       </c>
     </row>
@@ -9775,7 +9781,7 @@
       <c r="C226" t="s">
         <v>668</v>
       </c>
-      <c r="D226" s="52">
+      <c r="D226" s="42">
         <v>30899</v>
       </c>
     </row>
@@ -9786,7 +9792,7 @@
       <c r="C227" t="s">
         <v>670</v>
       </c>
-      <c r="D227" s="52">
+      <c r="D227" s="42">
         <v>22672</v>
       </c>
     </row>
@@ -9797,7 +9803,7 @@
       <c r="C228" t="s">
         <v>672</v>
       </c>
-      <c r="D228" s="52">
+      <c r="D228" s="42">
         <v>34308</v>
       </c>
     </row>
@@ -9808,7 +9814,7 @@
       <c r="C229" t="s">
         <v>674</v>
       </c>
-      <c r="D229" s="52">
+      <c r="D229" s="42">
         <v>19639</v>
       </c>
     </row>
@@ -9819,7 +9825,7 @@
       <c r="C230" t="s">
         <v>676</v>
       </c>
-      <c r="D230" s="52">
+      <c r="D230" s="42">
         <v>10510</v>
       </c>
     </row>
@@ -9830,7 +9836,7 @@
       <c r="C231" t="s">
         <v>678</v>
       </c>
-      <c r="D231" s="52">
+      <c r="D231" s="42">
         <v>12012</v>
       </c>
     </row>
@@ -9841,7 +9847,7 @@
       <c r="C232" t="s">
         <v>680</v>
       </c>
-      <c r="D232" s="52">
+      <c r="D232" s="42">
         <v>35390</v>
       </c>
     </row>
@@ -9852,7 +9858,7 @@
       <c r="C233" t="s">
         <v>682</v>
       </c>
-      <c r="D233" s="52">
+      <c r="D233" s="42">
         <v>9839</v>
       </c>
     </row>
@@ -9863,7 +9869,7 @@
       <c r="C234" t="s">
         <v>684</v>
       </c>
-      <c r="D234" s="52">
+      <c r="D234" s="42">
         <v>34461</v>
       </c>
     </row>
@@ -9874,7 +9880,7 @@
       <c r="C235" t="s">
         <v>686</v>
       </c>
-      <c r="D235" s="52">
+      <c r="D235" s="42">
         <v>32490</v>
       </c>
     </row>
@@ -9885,7 +9891,7 @@
       <c r="C236" t="s">
         <v>688</v>
       </c>
-      <c r="D236" s="52">
+      <c r="D236" s="42">
         <v>35271</v>
       </c>
     </row>
@@ -9896,7 +9902,7 @@
       <c r="C237" t="s">
         <v>689</v>
       </c>
-      <c r="D237" s="52">
+      <c r="D237" s="42">
         <v>44820</v>
       </c>
     </row>
@@ -9907,7 +9913,7 @@
       <c r="C238" t="s">
         <v>691</v>
       </c>
-      <c r="D238" s="52">
+      <c r="D238" s="42">
         <v>24834</v>
       </c>
     </row>
@@ -9918,7 +9924,7 @@
       <c r="C239" t="s">
         <v>693</v>
       </c>
-      <c r="D239" s="52">
+      <c r="D239" s="42">
         <v>42935</v>
       </c>
     </row>
@@ -9929,7 +9935,7 @@
       <c r="C240" t="s">
         <v>695</v>
       </c>
-      <c r="D240" s="52">
+      <c r="D240" s="42">
         <v>7409</v>
       </c>
     </row>
@@ -9940,7 +9946,7 @@
       <c r="C241" t="s">
         <v>697</v>
       </c>
-      <c r="D241" s="52">
+      <c r="D241" s="42">
         <v>63516</v>
       </c>
     </row>
@@ -9951,7 +9957,7 @@
       <c r="C242" t="s">
         <v>699</v>
       </c>
-      <c r="D242" s="52">
+      <c r="D242" s="42">
         <v>151763</v>
       </c>
     </row>
@@ -9962,7 +9968,7 @@
       <c r="C243" t="s">
         <v>701</v>
       </c>
-      <c r="D243" s="52">
+      <c r="D243" s="42">
         <v>13437</v>
       </c>
     </row>
@@ -9973,7 +9979,7 @@
       <c r="C244" t="s">
         <v>703</v>
       </c>
-      <c r="D244" s="52">
+      <c r="D244" s="42">
         <v>41588</v>
       </c>
     </row>
@@ -9984,7 +9990,7 @@
       <c r="C245" t="s">
         <v>705</v>
       </c>
-      <c r="D245" s="52">
+      <c r="D245" s="42">
         <v>28299</v>
       </c>
     </row>
@@ -9995,7 +10001,7 @@
       <c r="C246" t="s">
         <v>707</v>
       </c>
-      <c r="D246" s="52">
+      <c r="D246" s="42">
         <v>35923</v>
       </c>
     </row>
@@ -10006,7 +10012,7 @@
       <c r="C247" t="s">
         <v>709</v>
       </c>
-      <c r="D247" s="52">
+      <c r="D247" s="42">
         <v>13989</v>
       </c>
     </row>
@@ -10017,7 +10023,7 @@
       <c r="C248" t="s">
         <v>711</v>
       </c>
-      <c r="D248" s="52">
+      <c r="D248" s="42">
         <v>10059</v>
       </c>
     </row>
@@ -10028,7 +10034,7 @@
       <c r="C249" t="s">
         <v>713</v>
       </c>
-      <c r="D249" s="52">
+      <c r="D249" s="42">
         <v>18967</v>
       </c>
     </row>
@@ -10039,7 +10045,7 @@
       <c r="C250" t="s">
         <v>715</v>
       </c>
-      <c r="D250" s="52">
+      <c r="D250" s="42">
         <v>26996</v>
       </c>
     </row>
@@ -10050,7 +10056,7 @@
       <c r="C251" t="s">
         <v>717</v>
       </c>
-      <c r="D251" s="52">
+      <c r="D251" s="42">
         <v>47738</v>
       </c>
     </row>
@@ -10061,7 +10067,7 @@
       <c r="C252" t="s">
         <v>719</v>
       </c>
-      <c r="D252" s="52">
+      <c r="D252" s="42">
         <v>33801</v>
       </c>
     </row>
@@ -10072,7 +10078,7 @@
       <c r="C253" t="s">
         <v>721</v>
       </c>
-      <c r="D253" s="52">
+      <c r="D253" s="42">
         <v>20987</v>
       </c>
     </row>
@@ -10083,7 +10089,7 @@
       <c r="C254" t="s">
         <v>723</v>
       </c>
-      <c r="D254" s="52">
+      <c r="D254" s="42">
         <v>17027</v>
       </c>
     </row>
@@ -10094,7 +10100,7 @@
       <c r="C255" t="s">
         <v>725</v>
       </c>
-      <c r="D255" s="52">
+      <c r="D255" s="42">
         <v>55533</v>
       </c>
     </row>
@@ -10105,7 +10111,7 @@
       <c r="C256" t="s">
         <v>727</v>
       </c>
-      <c r="D256" s="52">
+      <c r="D256" s="42">
         <v>7797</v>
       </c>
     </row>
@@ -10116,7 +10122,7 @@
       <c r="C257" t="s">
         <v>729</v>
       </c>
-      <c r="D257" s="52">
+      <c r="D257" s="42">
         <v>13469</v>
       </c>
     </row>
@@ -10127,7 +10133,7 @@
       <c r="C258" t="s">
         <v>731</v>
       </c>
-      <c r="D258" s="52">
+      <c r="D258" s="42">
         <v>7913</v>
       </c>
     </row>
@@ -10138,7 +10144,7 @@
       <c r="C259" t="s">
         <v>733</v>
       </c>
-      <c r="D259" s="52">
+      <c r="D259" s="42">
         <v>9793</v>
       </c>
     </row>
@@ -10149,7 +10155,7 @@
       <c r="C260" t="s">
         <v>735</v>
       </c>
-      <c r="D260" s="52">
+      <c r="D260" s="42">
         <v>4432</v>
       </c>
     </row>
@@ -10160,7 +10166,7 @@
       <c r="C261" t="s">
         <v>737</v>
       </c>
-      <c r="D261" s="52">
+      <c r="D261" s="42">
         <v>10139</v>
       </c>
     </row>
@@ -10171,7 +10177,7 @@
       <c r="C262" t="s">
         <v>739</v>
       </c>
-      <c r="D262" s="52">
+      <c r="D262" s="42">
         <v>11575</v>
       </c>
     </row>
@@ -10182,7 +10188,7 @@
       <c r="C263" t="s">
         <v>741</v>
       </c>
-      <c r="D263" s="52">
+      <c r="D263" s="42">
         <v>7059</v>
       </c>
     </row>
@@ -10193,7 +10199,7 @@
       <c r="C264" t="s">
         <v>743</v>
       </c>
-      <c r="D264" s="52">
+      <c r="D264" s="42">
         <v>6202</v>
       </c>
     </row>
@@ -10204,7 +10210,7 @@
       <c r="C265" t="s">
         <v>745</v>
       </c>
-      <c r="D265" s="52">
+      <c r="D265" s="42">
         <v>44437</v>
       </c>
     </row>
@@ -10215,7 +10221,7 @@
       <c r="C266" t="s">
         <v>747</v>
       </c>
-      <c r="D266" s="52">
+      <c r="D266" s="42">
         <v>29952</v>
       </c>
     </row>
@@ -10226,7 +10232,7 @@
       <c r="C267" t="s">
         <v>749</v>
       </c>
-      <c r="D267" s="52">
+      <c r="D267" s="42">
         <v>59159</v>
       </c>
     </row>
@@ -10237,7 +10243,7 @@
       <c r="C268" t="s">
         <v>751</v>
       </c>
-      <c r="D268" s="52">
+      <c r="D268" s="42">
         <v>20873</v>
       </c>
     </row>
@@ -10248,7 +10254,7 @@
       <c r="C269" t="s">
         <v>753</v>
       </c>
-      <c r="D269" s="52">
+      <c r="D269" s="42">
         <v>6152</v>
       </c>
     </row>
@@ -10259,7 +10265,7 @@
       <c r="C270" t="s">
         <v>755</v>
       </c>
-      <c r="D270" s="52">
+      <c r="D270" s="42">
         <v>11383</v>
       </c>
     </row>
@@ -10270,7 +10276,7 @@
       <c r="C271" t="s">
         <v>757</v>
       </c>
-      <c r="D271" s="52">
+      <c r="D271" s="42">
         <v>4732</v>
       </c>
     </row>
@@ -10281,359 +10287,416 @@
       <c r="C272" t="s">
         <v>759</v>
       </c>
-      <c r="D272" s="52">
+      <c r="D272" s="42">
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>760</v>
       </c>
       <c r="C273" t="s">
         <v>761</v>
       </c>
-      <c r="D273" s="52">
+      <c r="D273" s="42">
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>762</v>
       </c>
       <c r="C274" t="s">
         <v>763</v>
       </c>
-      <c r="D274" s="52">
+      <c r="D274" s="42">
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>764</v>
       </c>
       <c r="C275" t="s">
         <v>765</v>
       </c>
-      <c r="D275" s="52">
+      <c r="D275" s="42">
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>766</v>
       </c>
       <c r="C276" t="s">
         <v>767</v>
       </c>
-      <c r="D276" s="52">
+      <c r="D276" s="42">
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>768</v>
       </c>
       <c r="C277" t="s">
         <v>769</v>
       </c>
-      <c r="D277" s="52">
+      <c r="D277" s="42">
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>770</v>
       </c>
-      <c r="C278" s="53" t="s">
+      <c r="C278" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="D278" s="52">
+      <c r="D278" s="42">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>772</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="C279" s="43" t="s">
         <v>773</v>
       </c>
-      <c r="D279" s="52">
+      <c r="D279" s="42">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>774</v>
       </c>
-      <c r="C280" s="53" t="s">
+      <c r="C280" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="D280" s="52">
+      <c r="D280" s="42">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>776</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="43" t="s">
         <v>777</v>
       </c>
-      <c r="D281" s="52">
+      <c r="D281" s="42">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>778</v>
       </c>
-      <c r="C282" s="53" t="s">
+      <c r="C282" s="43" t="s">
         <v>779</v>
       </c>
-      <c r="D282" s="52">
+      <c r="D282" s="42">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>780</v>
       </c>
-      <c r="C283" s="53" t="s">
+      <c r="C283" s="43" t="s">
         <v>781</v>
       </c>
-      <c r="D283" s="52">
+      <c r="D283" s="42">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>782</v>
       </c>
-      <c r="C284" s="53" t="s">
+      <c r="C284" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="D284" s="52">
+      <c r="D284" s="42">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>784</v>
       </c>
-      <c r="C285" s="59" t="s">
+      <c r="C285" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="D285" s="52">
+      <c r="D285" s="42">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>786</v>
       </c>
-      <c r="C286" s="59" t="s">
+      <c r="C286" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="D286" s="52">
+      <c r="D286" s="42">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>788</v>
       </c>
-      <c r="C287" s="59" t="s">
+      <c r="C287" s="49" t="s">
         <v>789</v>
       </c>
-      <c r="D287" s="52">
+      <c r="D287" s="42">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>790</v>
       </c>
-      <c r="C288" s="59" t="s">
+      <c r="C288" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="D288" s="52">
+      <c r="D288" s="42">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>792</v>
       </c>
-      <c r="C289" s="53" t="s">
+      <c r="C289" s="43" t="s">
         <v>793</v>
       </c>
-      <c r="D289" s="52">
+      <c r="D289" s="42">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>794</v>
       </c>
-      <c r="C290" s="53" t="s">
+      <c r="C290" s="43" t="s">
         <v>795</v>
       </c>
-      <c r="D290" s="52">
+      <c r="D290" s="42">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>796</v>
       </c>
-      <c r="C291" s="53" t="s">
+      <c r="C291" s="43" t="s">
         <v>797</v>
       </c>
-      <c r="D291" s="52">
+      <c r="D291" s="42">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>798</v>
       </c>
-      <c r="C292" s="53" t="s">
+      <c r="C292" s="43" t="s">
         <v>799</v>
       </c>
-      <c r="D292" s="52">
+      <c r="D292" s="42">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>800</v>
       </c>
-      <c r="C293" s="53" t="s">
+      <c r="C293" s="43" t="s">
         <v>801</v>
       </c>
-      <c r="D293" s="52">
+      <c r="D293" s="42">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>802</v>
       </c>
-      <c r="C294" s="53" t="s">
+      <c r="C294" s="43" t="s">
         <v>803</v>
       </c>
-      <c r="D294" s="52">
+      <c r="D294" s="42">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>804</v>
       </c>
-      <c r="C295" s="53" t="s">
+      <c r="C295" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="D295" s="52">
+      <c r="D295" s="42">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>806</v>
       </c>
-      <c r="C296" s="53" t="s">
+      <c r="C296" s="43" t="s">
         <v>807</v>
       </c>
-      <c r="D296" s="52">
+      <c r="D296" s="42">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>808</v>
       </c>
       <c r="C297" t="s">
         <v>809</v>
       </c>
-      <c r="D297" s="52">
+      <c r="D297" s="42">
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>810</v>
       </c>
       <c r="C298" t="s">
         <v>811</v>
       </c>
-      <c r="D298" s="52">
+      <c r="D298" s="42">
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>812</v>
       </c>
       <c r="C299" t="s">
         <v>813</v>
       </c>
-      <c r="D299" s="52">
+      <c r="D299" s="42">
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>814</v>
       </c>
       <c r="C300" t="s">
         <v>815</v>
       </c>
-      <c r="D300" s="52">
+      <c r="D300" s="42">
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>816</v>
       </c>
       <c r="C301" t="s">
         <v>817</v>
       </c>
-      <c r="D301" s="52">
+      <c r="D301" s="42">
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>818</v>
       </c>
       <c r="C302" t="s">
         <v>819</v>
       </c>
-      <c r="D302" s="52">
+      <c r="D302" s="42">
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>820</v>
       </c>
       <c r="C303" t="s">
         <v>821</v>
       </c>
-      <c r="D303" s="52">
+      <c r="D303" s="42">
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>822</v>
       </c>
       <c r="C304" t="s">
         <v>823</v>
       </c>
-      <c r="D304" s="52">
+      <c r="D304" s="42">
         <v>20488</v>
       </c>
     </row>
@@ -10644,7 +10707,7 @@
       <c r="C305" t="s">
         <v>825</v>
       </c>
-      <c r="D305" s="52">
+      <c r="D305" s="42">
         <v>5369</v>
       </c>
     </row>
@@ -10655,7 +10718,7 @@
       <c r="C306" t="s">
         <v>827</v>
       </c>
-      <c r="D306" s="52">
+      <c r="D306" s="42">
         <v>17928</v>
       </c>
     </row>
@@ -10666,7 +10729,7 @@
       <c r="C307" t="s">
         <v>829</v>
       </c>
-      <c r="D307" s="52">
+      <c r="D307" s="42">
         <v>124484</v>
       </c>
     </row>
@@ -10677,7 +10740,7 @@
       <c r="C308" t="s">
         <v>831</v>
       </c>
-      <c r="D308" s="52">
+      <c r="D308" s="42">
         <v>219053</v>
       </c>
     </row>
@@ -10688,7 +10751,7 @@
       <c r="C309" t="s">
         <v>833</v>
       </c>
-      <c r="D309" s="52">
+      <c r="D309" s="42">
         <v>171121</v>
       </c>
     </row>
@@ -10699,7 +10762,7 @@
       <c r="C310" t="s">
         <v>835</v>
       </c>
-      <c r="D310" s="52">
+      <c r="D310" s="42">
         <v>179070</v>
       </c>
     </row>
@@ -10710,7 +10773,7 @@
       <c r="C311" t="s">
         <v>837</v>
       </c>
-      <c r="D311" s="52">
+      <c r="D311" s="42">
         <v>242634</v>
       </c>
     </row>
@@ -10721,7 +10784,7 @@
       <c r="C312" t="s">
         <v>839</v>
       </c>
-      <c r="D312" s="52">
+      <c r="D312" s="42">
         <v>176440</v>
       </c>
     </row>
@@ -10732,7 +10795,7 @@
       <c r="C313" t="s">
         <v>841</v>
       </c>
-      <c r="D313" s="52">
+      <c r="D313" s="42">
         <v>148392</v>
       </c>
     </row>
@@ -10743,7 +10806,7 @@
       <c r="C314" t="s">
         <v>843</v>
       </c>
-      <c r="D314" s="52">
+      <c r="D314" s="42">
         <v>146367</v>
       </c>
     </row>
@@ -10754,7 +10817,7 @@
       <c r="C315" t="s">
         <v>845</v>
       </c>
-      <c r="D315" s="52">
+      <c r="D315" s="42">
         <v>322061</v>
       </c>
     </row>
@@ -10765,7 +10828,7 @@
       <c r="C316" t="s">
         <v>847</v>
       </c>
-      <c r="D316" s="52">
+      <c r="D316" s="42">
         <v>83011</v>
       </c>
     </row>
@@ -10776,7 +10839,7 @@
       <c r="C317" t="s">
         <v>849</v>
       </c>
-      <c r="D317" s="52">
+      <c r="D317" s="42">
         <v>38123</v>
       </c>
     </row>
@@ -10787,7 +10850,7 @@
       <c r="C318" t="s">
         <v>851</v>
       </c>
-      <c r="D318" s="52">
+      <c r="D318" s="42">
         <v>279078</v>
       </c>
     </row>
@@ -10798,7 +10861,7 @@
       <c r="C319" t="s">
         <v>853</v>
       </c>
-      <c r="D319" s="52">
+      <c r="D319" s="42">
         <v>227964</v>
       </c>
     </row>
@@ -10809,7 +10872,7 @@
       <c r="C320" t="s">
         <v>855</v>
       </c>
-      <c r="D320" s="52">
+      <c r="D320" s="42">
         <v>230215</v>
       </c>
     </row>
@@ -10820,7 +10883,7 @@
       <c r="C321" t="s">
         <v>857</v>
       </c>
-      <c r="D321" s="52">
+      <c r="D321" s="42">
         <v>140227</v>
       </c>
     </row>
@@ -10831,7 +10894,7 @@
       <c r="C322" t="s">
         <v>859</v>
       </c>
-      <c r="D322" s="52">
+      <c r="D322" s="42">
         <v>101522</v>
       </c>
     </row>
@@ -10842,7 +10905,7 @@
       <c r="C323" t="s">
         <v>861</v>
       </c>
-      <c r="D323" s="52">
+      <c r="D323" s="42">
         <v>92474</v>
       </c>
     </row>
@@ -10853,7 +10916,7 @@
       <c r="C324" t="s">
         <v>863</v>
       </c>
-      <c r="D324" s="52">
+      <c r="D324" s="42">
         <v>137915</v>
       </c>
     </row>
@@ -10864,7 +10927,7 @@
       <c r="C325" t="s">
         <v>865</v>
       </c>
-      <c r="D325" s="52">
+      <c r="D325" s="42">
         <v>229646</v>
       </c>
     </row>
@@ -10875,7 +10938,7 @@
       <c r="C326" t="s">
         <v>867</v>
       </c>
-      <c r="D326" s="52">
+      <c r="D326" s="42">
         <v>57722</v>
       </c>
     </row>
@@ -10886,7 +10949,7 @@
       <c r="C327" t="s">
         <v>869</v>
       </c>
-      <c r="D327" s="52">
+      <c r="D327" s="42">
         <v>35581</v>
       </c>
     </row>
@@ -10897,7 +10960,7 @@
       <c r="C328" t="s">
         <v>871</v>
       </c>
-      <c r="D328" s="52">
+      <c r="D328" s="42">
         <v>43933</v>
       </c>
     </row>
@@ -10908,7 +10971,7 @@
       <c r="C329" t="s">
         <v>873</v>
       </c>
-      <c r="D329" s="52">
+      <c r="D329" s="42">
         <v>68922</v>
       </c>
     </row>
@@ -10919,7 +10982,7 @@
       <c r="C330" t="s">
         <v>875</v>
       </c>
-      <c r="D330" s="52">
+      <c r="D330" s="42">
         <v>211318</v>
       </c>
     </row>
@@ -10930,7 +10993,7 @@
       <c r="C331" t="s">
         <v>877</v>
       </c>
-      <c r="D331" s="52">
+      <c r="D331" s="42">
         <v>82025</v>
       </c>
     </row>
@@ -10941,7 +11004,7 @@
       <c r="C332" t="s">
         <v>879</v>
       </c>
-      <c r="D332" s="52">
+      <c r="D332" s="42">
         <v>47194</v>
       </c>
     </row>
@@ -10952,7 +11015,7 @@
       <c r="C333" t="s">
         <v>881</v>
       </c>
-      <c r="D333" s="52">
+      <c r="D333" s="42">
         <v>332550</v>
       </c>
     </row>
@@ -10963,7 +11026,7 @@
       <c r="C334" t="s">
         <v>883</v>
       </c>
-      <c r="D334" s="52">
+      <c r="D334" s="42">
         <v>65769</v>
       </c>
     </row>
@@ -10974,7 +11037,7 @@
       <c r="C335" t="s">
         <v>885</v>
       </c>
-      <c r="D335" s="52">
+      <c r="D335" s="42">
         <v>43699</v>
       </c>
     </row>
@@ -10985,7 +11048,7 @@
       <c r="C336" t="s">
         <v>887</v>
       </c>
-      <c r="D336" s="52">
+      <c r="D336" s="42">
         <v>137453</v>
       </c>
     </row>
@@ -10996,7 +11059,7 @@
       <c r="C337" t="s">
         <v>889</v>
       </c>
-      <c r="D337" s="52">
+      <c r="D337" s="42">
         <v>80430</v>
       </c>
     </row>
@@ -11007,7 +11070,7 @@
       <c r="C338" t="s">
         <v>891</v>
       </c>
-      <c r="D338" s="52">
+      <c r="D338" s="42">
         <v>120074</v>
       </c>
     </row>
@@ -11018,7 +11081,7 @@
       <c r="C339" t="s">
         <v>893</v>
       </c>
-      <c r="D339" s="52">
+      <c r="D339" s="42">
         <v>27110</v>
       </c>
     </row>
@@ -11029,7 +11092,7 @@
       <c r="C340" t="s">
         <v>895</v>
       </c>
-      <c r="D340" s="52">
+      <c r="D340" s="42">
         <v>29340</v>
       </c>
     </row>
@@ -11040,7 +11103,7 @@
       <c r="C341" t="s">
         <v>897</v>
       </c>
-      <c r="D341" s="52">
+      <c r="D341" s="42">
         <v>38375</v>
       </c>
     </row>
@@ -11051,7 +11114,7 @@
       <c r="C342" t="s">
         <v>899</v>
       </c>
-      <c r="D342" s="52">
+      <c r="D342" s="42">
         <v>14438</v>
       </c>
     </row>
@@ -11062,7 +11125,7 @@
       <c r="C343" t="s">
         <v>901</v>
       </c>
-      <c r="D343" s="52">
+      <c r="D343" s="42">
         <v>212383</v>
       </c>
     </row>
@@ -11073,7 +11136,7 @@
       <c r="C344" t="s">
         <v>903</v>
       </c>
-      <c r="D344" s="52">
+      <c r="D344" s="42">
         <v>126697</v>
       </c>
     </row>
@@ -11084,7 +11147,7 @@
       <c r="C345" t="s">
         <v>905</v>
       </c>
-      <c r="D345" s="52">
+      <c r="D345" s="42">
         <v>16643</v>
       </c>
     </row>
@@ -11095,7 +11158,7 @@
       <c r="C346" t="s">
         <v>907</v>
       </c>
-      <c r="D346" s="52">
+      <c r="D346" s="42">
         <v>83920</v>
       </c>
     </row>
@@ -11106,7 +11169,7 @@
       <c r="C347" t="s">
         <v>909</v>
       </c>
-      <c r="D347" s="52">
+      <c r="D347" s="42">
         <v>97373</v>
       </c>
     </row>
@@ -11117,7 +11180,7 @@
       <c r="C348" t="s">
         <v>911</v>
       </c>
-      <c r="D348" s="52">
+      <c r="D348" s="42">
         <v>334092</v>
       </c>
     </row>
@@ -11128,7 +11191,7 @@
       <c r="C349" t="s">
         <v>913</v>
       </c>
-      <c r="D349" s="52">
+      <c r="D349" s="42">
         <v>261627</v>
       </c>
     </row>
@@ -11139,7 +11202,7 @@
       <c r="C350" t="s">
         <v>915</v>
       </c>
-      <c r="D350" s="52">
+      <c r="D350" s="42">
         <v>45066</v>
       </c>
     </row>
@@ -11150,7 +11213,7 @@
       <c r="C351" t="s">
         <v>917</v>
       </c>
-      <c r="D351" s="52">
+      <c r="D351" s="42">
         <v>148620</v>
       </c>
     </row>
@@ -11161,7 +11224,7 @@
       <c r="C352" t="s">
         <v>919</v>
       </c>
-      <c r="D352" s="52">
+      <c r="D352" s="42">
         <v>132937</v>
       </c>
     </row>
@@ -11172,7 +11235,7 @@
       <c r="C353" t="s">
         <v>921</v>
       </c>
-      <c r="D353" s="52">
+      <c r="D353" s="42">
         <v>9245</v>
       </c>
     </row>
@@ -11183,7 +11246,7 @@
       <c r="C354" t="s">
         <v>923</v>
       </c>
-      <c r="D354" s="52">
+      <c r="D354" s="42">
         <v>296293</v>
       </c>
     </row>
@@ -11194,7 +11257,7 @@
       <c r="C355" t="s">
         <v>925</v>
       </c>
-      <c r="D355" s="52">
+      <c r="D355" s="42">
         <v>520425</v>
       </c>
     </row>
@@ -11205,7 +11268,7 @@
       <c r="C356" t="s">
         <v>927</v>
       </c>
-      <c r="D356" s="52">
+      <c r="D356" s="42">
         <v>349439</v>
       </c>
     </row>
@@ -11216,7 +11279,7 @@
       <c r="C357" t="s">
         <v>929</v>
       </c>
-      <c r="D357" s="52">
+      <c r="D357" s="42">
         <v>218793</v>
       </c>
     </row>
@@ -11227,7 +11290,7 @@
       <c r="C358" t="s">
         <v>931</v>
       </c>
-      <c r="D358" s="52">
+      <c r="D358" s="42">
         <v>88034</v>
       </c>
     </row>
@@ -11238,7 +11301,7 @@
       <c r="C359" t="s">
         <v>933</v>
       </c>
-      <c r="D359" s="52">
+      <c r="D359" s="42">
         <v>586732</v>
       </c>
     </row>
@@ -11249,7 +11312,7 @@
       <c r="C360" t="s">
         <v>935</v>
       </c>
-      <c r="D360" s="52">
+      <c r="D360" s="42">
         <v>344723</v>
       </c>
     </row>
@@ -11260,7 +11323,7 @@
       <c r="C361" t="s">
         <v>937</v>
       </c>
-      <c r="D361" s="52">
+      <c r="D361" s="42">
         <v>163544</v>
       </c>
     </row>
@@ -11271,7 +11334,7 @@
       <c r="C362" t="s">
         <v>939</v>
       </c>
-      <c r="D362" s="52">
+      <c r="D362" s="42">
         <v>1416584</v>
       </c>
     </row>
@@ -11282,7 +11345,7 @@
       <c r="C363" t="s">
         <v>941</v>
       </c>
-      <c r="D363" s="52">
+      <c r="D363" s="42">
         <v>530391</v>
       </c>
     </row>
@@ -11293,7 +11356,7 @@
       <c r="C364" t="s">
         <v>943</v>
       </c>
-      <c r="D364" s="52">
+      <c r="D364" s="42">
         <v>1123901</v>
       </c>
     </row>
@@ -11304,7 +11367,7 @@
       <c r="C365" t="s">
         <v>945</v>
       </c>
-      <c r="D365" s="52">
+      <c r="D365" s="42">
         <v>61256</v>
       </c>
     </row>
@@ -11315,7 +11378,7 @@
       <c r="C366" t="s">
         <v>947</v>
       </c>
-      <c r="D366" s="52">
+      <c r="D366" s="42">
         <v>77621</v>
       </c>
     </row>
@@ -11326,7 +11389,7 @@
       <c r="C367" t="s">
         <v>949</v>
       </c>
-      <c r="D367" s="52">
+      <c r="D367" s="42">
         <v>29242</v>
       </c>
     </row>
@@ -11337,7 +11400,7 @@
       <c r="C368" t="s">
         <v>951</v>
       </c>
-      <c r="D368" s="52">
+      <c r="D368" s="42">
         <v>161188</v>
       </c>
     </row>
@@ -11348,7 +11411,7 @@
       <c r="C369" t="s">
         <v>953</v>
       </c>
-      <c r="D369" s="52">
+      <c r="D369" s="42">
         <v>331383</v>
       </c>
     </row>
@@ -11359,7 +11422,7 @@
       <c r="C370" t="s">
         <v>955</v>
       </c>
-      <c r="D370" s="52">
+      <c r="D370" s="42">
         <v>155017</v>
       </c>
     </row>
@@ -11370,7 +11433,7 @@
       <c r="C371" t="s">
         <v>957</v>
       </c>
-      <c r="D371" s="52">
+      <c r="D371" s="42">
         <v>163308</v>
       </c>
     </row>
@@ -11381,7 +11444,7 @@
       <c r="C372" t="s">
         <v>959</v>
       </c>
-      <c r="D372" s="52">
+      <c r="D372" s="42">
         <v>63364</v>
       </c>
     </row>
@@ -11392,7 +11455,7 @@
       <c r="C373" t="s">
         <v>961</v>
       </c>
-      <c r="D373" s="52">
+      <c r="D373" s="42">
         <v>193482</v>
       </c>
     </row>
@@ -11403,7 +11466,7 @@
       <c r="C374" t="s">
         <v>963</v>
       </c>
-      <c r="D374" s="52">
+      <c r="D374" s="42">
         <v>311584</v>
       </c>
     </row>
@@ -11414,7 +11477,7 @@
       <c r="C375" t="s">
         <v>965</v>
       </c>
-      <c r="D375" s="52">
+      <c r="D375" s="42">
         <v>232966</v>
       </c>
     </row>
@@ -11425,7 +11488,7 @@
       <c r="C376" t="s">
         <v>967</v>
       </c>
-      <c r="D376" s="52">
+      <c r="D376" s="42">
         <v>49844</v>
       </c>
     </row>
@@ -11436,7 +11499,7 @@
       <c r="C377" t="s">
         <v>969</v>
       </c>
-      <c r="D377" s="52">
+      <c r="D377" s="42">
         <v>202086</v>
       </c>
     </row>
@@ -11447,7 +11510,7 @@
       <c r="C378" t="s">
         <v>971</v>
       </c>
-      <c r="D378" s="52">
+      <c r="D378" s="42">
         <v>125875</v>
       </c>
     </row>
@@ -11458,7 +11521,7 @@
       <c r="C379" t="s">
         <v>973</v>
       </c>
-      <c r="D379" s="52">
+      <c r="D379" s="42">
         <v>33044</v>
       </c>
     </row>
@@ -11469,7 +11532,7 @@
       <c r="C380" t="s">
         <v>975</v>
       </c>
-      <c r="D380" s="52">
+      <c r="D380" s="42">
         <v>11848</v>
       </c>
     </row>
@@ -11480,7 +11543,7 @@
       <c r="C381" t="s">
         <v>977</v>
       </c>
-      <c r="D381" s="52">
+      <c r="D381" s="42">
         <v>36577</v>
       </c>
     </row>
@@ -11491,7 +11554,7 @@
       <c r="C382" t="s">
         <v>979</v>
       </c>
-      <c r="D382" s="52">
+      <c r="D382" s="42">
         <v>88795</v>
       </c>
     </row>
@@ -11502,7 +11565,7 @@
       <c r="C383" t="s">
         <v>981</v>
       </c>
-      <c r="D383" s="52">
+      <c r="D383" s="42">
         <v>561730</v>
       </c>
     </row>
@@ -11513,183 +11576,186 @@
       <c r="C384" t="s">
         <v>983</v>
       </c>
-      <c r="D384" s="52">
+      <c r="D384" s="42">
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>984</v>
       </c>
       <c r="C385" t="s">
         <v>985</v>
       </c>
-      <c r="D385" s="52">
+      <c r="D385" s="42">
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>986</v>
       </c>
       <c r="C386" t="s">
         <v>987</v>
       </c>
-      <c r="D386" s="52">
+      <c r="D386" s="42">
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>988</v>
       </c>
       <c r="C387" t="s">
         <v>989</v>
       </c>
-      <c r="D387" s="52">
+      <c r="D387" s="42">
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>990</v>
       </c>
       <c r="C388" t="s">
         <v>991</v>
       </c>
-      <c r="D388" s="52">
+      <c r="D388" s="42">
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>992</v>
       </c>
       <c r="C389" t="s">
         <v>993</v>
       </c>
-      <c r="D389" s="52">
+      <c r="D389" s="42">
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>994</v>
       </c>
       <c r="C390" t="s">
         <v>995</v>
       </c>
-      <c r="D390" s="52">
+      <c r="D390" s="42">
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>996</v>
       </c>
       <c r="C391" t="s">
         <v>997</v>
       </c>
-      <c r="D391" s="52">
+      <c r="D391" s="42">
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>998</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="17" t="s">
         <v>999</v>
       </c>
-      <c r="D392" s="52">
+      <c r="D392" s="42">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1000</v>
       </c>
       <c r="C393" t="s">
         <v>1001</v>
       </c>
-      <c r="D393" s="52">
+      <c r="D393" s="42">
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1002</v>
       </c>
       <c r="C394" t="s">
         <v>1003</v>
       </c>
-      <c r="D394" s="52">
+      <c r="D394" s="42">
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1004</v>
       </c>
       <c r="C395" t="s">
         <v>1005</v>
       </c>
-      <c r="D395" s="52">
+      <c r="D395" s="42">
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1006</v>
       </c>
       <c r="C396" t="s">
         <v>1007</v>
       </c>
-      <c r="D396" s="52">
+      <c r="D396" s="42">
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1008</v>
       </c>
       <c r="C397" t="s">
         <v>1009</v>
       </c>
-      <c r="D397" s="52">
+      <c r="D397" s="42">
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1010</v>
       </c>
       <c r="C398" t="s">
         <v>1011</v>
       </c>
-      <c r="D398" s="52">
+      <c r="D398" s="42">
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1012</v>
       </c>
       <c r="C399" t="s">
         <v>1013</v>
       </c>
-      <c r="D399" s="52">
+      <c r="D399" s="42">
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1014</v>
       </c>
       <c r="C400" t="s">
         <v>1015</v>
       </c>
-      <c r="D400" s="52">
+      <c r="D400" s="42">
         <v>53964</v>
       </c>
     </row>
@@ -11700,7 +11766,7 @@
       <c r="C401" t="s">
         <v>1017</v>
       </c>
-      <c r="D401" s="52">
+      <c r="D401" s="42">
         <v>75155</v>
       </c>
     </row>
@@ -11711,7 +11777,7 @@
       <c r="C402" t="s">
         <v>1019</v>
       </c>
-      <c r="D402" s="52">
+      <c r="D402" s="42">
         <v>35396</v>
       </c>
     </row>
@@ -11722,7 +11788,7 @@
       <c r="C403" t="s">
         <v>1021</v>
       </c>
-      <c r="D403" s="52">
+      <c r="D403" s="42">
         <v>813054</v>
       </c>
     </row>
@@ -11733,7 +11799,7 @@
       <c r="C404" t="s">
         <v>1023</v>
       </c>
-      <c r="D404" s="52">
+      <c r="D404" s="42">
         <v>184319</v>
       </c>
     </row>
@@ -11744,7 +11810,7 @@
       <c r="C405" t="s">
         <v>1025</v>
       </c>
-      <c r="D405" s="52">
+      <c r="D405" s="42">
         <v>46401</v>
       </c>
     </row>
@@ -11755,7 +11821,7 @@
       <c r="C406" t="s">
         <v>1027</v>
       </c>
-      <c r="D406" s="52">
+      <c r="D406" s="42">
         <v>93433</v>
       </c>
     </row>
@@ -11766,7 +11832,7 @@
       <c r="C407" t="s">
         <v>1029</v>
       </c>
-      <c r="D407" s="52">
+      <c r="D407" s="42">
         <v>48681</v>
       </c>
     </row>
@@ -11777,7 +11843,7 @@
       <c r="C408" t="s">
         <v>1031</v>
       </c>
-      <c r="D408" s="52">
+      <c r="D408" s="42">
         <v>45458</v>
       </c>
     </row>
@@ -11788,7 +11854,7 @@
       <c r="C409" t="s">
         <v>1033</v>
       </c>
-      <c r="D409" s="52">
+      <c r="D409" s="42">
         <v>22884</v>
       </c>
     </row>
@@ -11799,7 +11865,7 @@
       <c r="C410" t="s">
         <v>1035</v>
       </c>
-      <c r="D410" s="52">
+      <c r="D410" s="42">
         <v>45096</v>
       </c>
     </row>
@@ -11810,7 +11876,7 @@
       <c r="C411" t="s">
         <v>1037</v>
       </c>
-      <c r="D411" s="52">
+      <c r="D411" s="42">
         <v>41997</v>
       </c>
     </row>
@@ -11821,7 +11887,7 @@
       <c r="C412" t="s">
         <v>1039</v>
       </c>
-      <c r="D412" s="52">
+      <c r="D412" s="42">
         <v>44265</v>
       </c>
     </row>
@@ -11832,7 +11898,7 @@
       <c r="C413" t="s">
         <v>1041</v>
       </c>
-      <c r="D413" s="52">
+      <c r="D413" s="42">
         <v>14730</v>
       </c>
     </row>
@@ -11843,7 +11909,7 @@
       <c r="C414" t="s">
         <v>1043</v>
       </c>
-      <c r="D414" s="52">
+      <c r="D414" s="42">
         <v>18301</v>
       </c>
     </row>
@@ -11854,7 +11920,7 @@
       <c r="C415" t="s">
         <v>1045</v>
       </c>
-      <c r="D415" s="52">
+      <c r="D415" s="42">
         <v>35926</v>
       </c>
     </row>
@@ -11865,7 +11931,7 @@
       <c r="C416" t="s">
         <v>1047</v>
       </c>
-      <c r="D416" s="52">
+      <c r="D416" s="42">
         <v>81758</v>
       </c>
     </row>
@@ -11876,7 +11942,7 @@
       <c r="C417" t="s">
         <v>1049</v>
       </c>
-      <c r="D417" s="52">
+      <c r="D417" s="42">
         <v>258628</v>
       </c>
     </row>
@@ -11887,7 +11953,7 @@
       <c r="C418" t="s">
         <v>1051</v>
       </c>
-      <c r="D418" s="52">
+      <c r="D418" s="42">
         <v>336211</v>
       </c>
     </row>
@@ -11898,7 +11964,7 @@
       <c r="C419" t="s">
         <v>1053</v>
       </c>
-      <c r="D419" s="52">
+      <c r="D419" s="42">
         <v>303694</v>
       </c>
     </row>
@@ -11909,7 +11975,7 @@
       <c r="C420" t="s">
         <v>1055</v>
       </c>
-      <c r="D420" s="52">
+      <c r="D420" s="42">
         <v>98573</v>
       </c>
     </row>
@@ -11920,7 +11986,7 @@
       <c r="C421" t="s">
         <v>1057</v>
       </c>
-      <c r="D421" s="52">
+      <c r="D421" s="42">
         <v>120747</v>
       </c>
     </row>
@@ -11931,7 +11997,7 @@
       <c r="C422" t="s">
         <v>1059</v>
       </c>
-      <c r="D422" s="52">
+      <c r="D422" s="42">
         <v>22166</v>
       </c>
     </row>
@@ -11942,7 +12008,7 @@
       <c r="C423" t="s">
         <v>1061</v>
       </c>
-      <c r="D423" s="52">
+      <c r="D423" s="42">
         <v>37604</v>
       </c>
     </row>
@@ -11953,7 +12019,7 @@
       <c r="C424" t="s">
         <v>1063</v>
       </c>
-      <c r="D424" s="52">
+      <c r="D424" s="42">
         <v>22329</v>
       </c>
     </row>
@@ -11964,7 +12030,7 @@
       <c r="C425" t="s">
         <v>1065</v>
       </c>
-      <c r="D425" s="52">
+      <c r="D425" s="42">
         <v>80111</v>
       </c>
     </row>
@@ -11975,7 +12041,7 @@
       <c r="C426" t="s">
         <v>1067</v>
       </c>
-      <c r="D426" s="52">
+      <c r="D426" s="42">
         <v>20088</v>
       </c>
     </row>
@@ -11986,7 +12052,7 @@
       <c r="C427" t="s">
         <v>1069</v>
       </c>
-      <c r="D427" s="52">
+      <c r="D427" s="42">
         <v>28962</v>
       </c>
     </row>
@@ -11997,7 +12063,7 @@
       <c r="C428" t="s">
         <v>1071</v>
       </c>
-      <c r="D428" s="52">
+      <c r="D428" s="42">
         <v>62899</v>
       </c>
     </row>
@@ -12008,7 +12074,7 @@
       <c r="C429" t="s">
         <v>1073</v>
       </c>
-      <c r="D429" s="52">
+      <c r="D429" s="42">
         <v>93020</v>
       </c>
     </row>
@@ -12019,7 +12085,7 @@
       <c r="C430" t="s">
         <v>1075</v>
       </c>
-      <c r="D430" s="52">
+      <c r="D430" s="42">
         <v>57520</v>
       </c>
     </row>
@@ -12030,7 +12096,7 @@
       <c r="C431" t="s">
         <v>1077</v>
       </c>
-      <c r="D431" s="52">
+      <c r="D431" s="42">
         <v>75682</v>
       </c>
     </row>
@@ -12041,7 +12107,7 @@
       <c r="C432" t="s">
         <v>1079</v>
       </c>
-      <c r="D432" s="52">
+      <c r="D432" s="42">
         <v>21314</v>
       </c>
     </row>
@@ -12052,7 +12118,7 @@
       <c r="C433" t="s">
         <v>1081</v>
       </c>
-      <c r="D433" s="52">
+      <c r="D433" s="42">
         <v>613306</v>
       </c>
     </row>
@@ -12063,7 +12129,7 @@
       <c r="C434" t="s">
         <v>1083</v>
       </c>
-      <c r="D434" s="52">
+      <c r="D434" s="42">
         <v>390322</v>
       </c>
     </row>
@@ -12074,7 +12140,7 @@
       <c r="C435" t="s">
         <v>1085</v>
       </c>
-      <c r="D435" s="52">
+      <c r="D435" s="42">
         <v>62768</v>
       </c>
     </row>
@@ -12085,7 +12151,7 @@
       <c r="C436" t="s">
         <v>1087</v>
       </c>
-      <c r="D436" s="52">
+      <c r="D436" s="42">
         <v>13843</v>
       </c>
     </row>
@@ -12096,7 +12162,7 @@
       <c r="C437" t="s">
         <v>1089</v>
       </c>
-      <c r="D437" s="52">
+      <c r="D437" s="42">
         <v>17451</v>
       </c>
     </row>
@@ -12107,7 +12173,7 @@
       <c r="C438" t="s">
         <v>1091</v>
       </c>
-      <c r="D438" s="52">
+      <c r="D438" s="42">
         <v>974593</v>
       </c>
     </row>
@@ -12118,7 +12184,7 @@
       <c r="C439" t="s">
         <v>1093</v>
       </c>
-      <c r="D439" s="52">
+      <c r="D439" s="42">
         <v>286138</v>
       </c>
     </row>
@@ -12129,7 +12195,7 @@
       <c r="C440" t="s">
         <v>1095</v>
       </c>
-      <c r="D440" s="52">
+      <c r="D440" s="42">
         <v>879668</v>
       </c>
     </row>
@@ -12140,7 +12206,7 @@
       <c r="C441" t="s">
         <v>1097</v>
       </c>
-      <c r="D441" s="52">
+      <c r="D441" s="42">
         <v>16399</v>
       </c>
     </row>
@@ -12151,7 +12217,7 @@
       <c r="C442" t="s">
         <v>1099</v>
       </c>
-      <c r="D442" s="52">
+      <c r="D442" s="42">
         <v>62898</v>
       </c>
     </row>
@@ -12162,16 +12228,16 @@
       <c r="C443" t="s">
         <v>1101</v>
       </c>
-      <c r="D443" s="52">
+      <c r="D443" s="42">
         <v>248131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{39E742F1-0996-411D-9105-7074F8A7FC05}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{ECFEB79F-5155-453E-8228-F837955486F1}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{7C80F603-596D-4627-9F6F-FC75B81CD136}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{CF4C8246-3EB2-4F06-859F-E26A2532CB17}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{26CB0C64-1738-4840-852A-058F0B3D79F8}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{63259390-AAEC-47BD-8F14-AAABCABC406E}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{3C349D35-EC30-480E-979F-36AB93E5188F}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{5E7B84D6-D752-4BB1-8B66-19558960D00E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
@@ -12185,7 +12251,9 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12202,10 +12270,10 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="51" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12229,25 +12297,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="51" t="s">
         <v>97</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="50" t="s">
         <v>1102</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="51" t="s">
         <v>1103</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="50" t="s">
         <v>1104</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="51" t="s">
         <v>1105</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12271,13 +12339,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="50" t="s">
         <v>1106</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="54" t="s">
         <v>1107</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="51" t="s">
         <v>1108</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12334,11 +12402,11 @@
         <f>'OECD VAL'!C9*10^6*About!$A$36</f>
         <v>54016507157.360023</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="52">
         <f>'OECD VAL'!D9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!D10/SUM('U.S. Data for ISIC Splits'!D10:E10))</f>
         <v>6293206301.826046</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="53">
         <f>'OECD VAL'!D9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!E10/SUM('U.S. Data for ISIC Splits'!D10:E10))</f>
         <v>35794734157.676857</v>
       </c>
@@ -12370,11 +12438,11 @@
         <f>'OECD VAL'!K9*10^6*About!$A$36</f>
         <v>17895825352.232121</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="52">
         <f>'OECD VAL'!L9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!G10/SUM('U.S. Data for ISIC Splits'!G10:H10))</f>
         <v>64295038628.874931</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="53">
         <f>'OECD VAL'!L9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!H10/SUM('U.S. Data for ISIC Splits'!G10:H10))</f>
         <v>33597919677.052502</v>
       </c>
@@ -12382,19 +12450,19 @@
         <f>'OECD VAL'!M9*10^6*About!$A$36</f>
         <v>48035143530.62439</v>
       </c>
-      <c r="O2" s="62">
+      <c r="O2" s="52">
         <f>'OECD VAL'!N9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!J10/SUM('U.S. Data for ISIC Splits'!J10:K10))</f>
         <v>6076900546.4313354</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="53">
         <f>'OECD VAL'!N9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!K10/SUM('U.S. Data for ISIC Splits'!J10:K10))</f>
         <v>21886795632.576923</v>
       </c>
-      <c r="Q2" s="62">
+      <c r="Q2" s="52">
         <f>'OECD VAL'!O9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!M10/SUM('U.S. Data for ISIC Splits'!M10:N10))</f>
         <v>17077622654.617786</v>
       </c>
-      <c r="R2" s="63">
+      <c r="R2" s="53">
         <f>'OECD VAL'!O9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!N10/SUM('U.S. Data for ISIC Splits'!M10:N10))</f>
         <v>13457467816.02356</v>
       </c>
@@ -12426,17 +12494,17 @@
         <f>'OECD VAL'!V9*10^6*About!$A$36</f>
         <v>70758876865.8535</v>
       </c>
-      <c r="Z2" s="62">
+      <c r="Z2" s="52">
         <f>'OECD VAL'!W9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!P10/SUM('U.S. Data for ISIC Splits'!P10:R10))</f>
-        <v>80145790656.813919</v>
-      </c>
-      <c r="AA2" s="65">
+        <v>68220165205.866692</v>
+      </c>
+      <c r="AA2" s="55">
         <f>'OECD VAL'!W9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!Q10/SUM('U.S. Data for ISIC Splits'!P10:R10))</f>
-        <v>16689984376.852951</v>
-      </c>
-      <c r="AB2" s="63">
+        <v>14206528903.654158</v>
+      </c>
+      <c r="AB2" s="53">
         <f>'OECD VAL'!W9*10^6*About!$A$36*('U.S. Data for ISIC Splits'!R10/SUM('U.S. Data for ISIC Splits'!P10:R10))</f>
-        <v>2813990950.8574591</v>
+        <v>17223071875.003468</v>
       </c>
       <c r="AC2">
         <f>'OECD VAL'!X9*10^6*About!$A$36</f>
